--- a/WADE003-arcticpred_dada2_QAQC_16SP1+2.Rdata.xlsx
+++ b/WADE003-arcticpred_dada2_QAQC_16SP1+2.Rdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MBall\OneDrive\Documents\UW-DOCS\WADE lab\Arctic-predator-diet-microbiome\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5bd2331949789710/文档/WADE LAB/Arctic-predator-diet-microbiome/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE892F5F-F819-4BB0-A3EA-D3F73A48336A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{BE892F5F-F819-4BB0-A3EA-D3F73A48336A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A04D0154-B9DE-44B4-8D07-A1164725A11E}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="222">
   <si>
     <t>rownames</t>
   </si>
@@ -674,13 +674,25 @@
   </si>
   <si>
     <t xml:space="preserve">Leptoclinus maculatus &amp; Lumpenus fabricii  </t>
+  </si>
+  <si>
+    <t>Myoxocephalus quadricornis</t>
+  </si>
+  <si>
+    <t>Pungitius pungitius</t>
+  </si>
+  <si>
+    <t>&gt;99% Oncorhynchus tshawytscha AND Oncorhynchus kisutch</t>
+  </si>
+  <si>
+    <t>nothing &gt;98%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,8 +721,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -723,6 +749,16 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -733,10 +769,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -744,8 +782,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1050,25 +1092,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.46484375" customWidth="1"/>
-    <col min="2" max="2" width="10.86328125" customWidth="1"/>
-    <col min="3" max="3" width="12.1328125" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.06640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.53125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1103,7 +1145,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1135,7 +1177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1167,7 +1209,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1199,7 +1241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1231,7 +1273,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1263,7 +1305,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1295,7 +1337,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1327,7 +1369,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1338,7 +1380,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1370,7 +1412,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -1402,7 +1444,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1434,7 +1476,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1466,7 +1508,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1486,7 +1528,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -1518,7 +1560,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1550,7 +1592,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -1582,7 +1624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -1614,7 +1656,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>54</v>
       </c>
@@ -1640,7 +1682,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -1669,7 +1711,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -1677,7 +1719,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -1709,7 +1751,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -1741,7 +1783,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>69</v>
       </c>
@@ -1758,7 +1800,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -1784,7 +1826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -1816,7 +1858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -1845,7 +1887,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>73</v>
       </c>
@@ -1874,7 +1916,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -1906,7 +1948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -1935,7 +1977,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -1964,7 +2006,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -1984,7 +2026,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -2013,7 +2055,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -2042,7 +2084,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -2071,7 +2113,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -2100,7 +2142,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>84</v>
       </c>
@@ -2120,7 +2162,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -2134,7 +2176,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -2151,7 +2193,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -2171,7 +2213,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>93</v>
       </c>
@@ -2203,7 +2245,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>98</v>
       </c>
@@ -2235,7 +2277,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>99</v>
       </c>
@@ -2264,7 +2306,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -2284,7 +2326,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>102</v>
       </c>
@@ -2313,7 +2355,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>103</v>
       </c>
@@ -2342,7 +2384,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>104</v>
       </c>
@@ -2371,7 +2413,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>105</v>
       </c>
@@ -2400,7 +2442,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>106</v>
       </c>
@@ -2429,15 +2471,18 @@
         <v>213</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
+    <row r="50" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>108</v>
       </c>
@@ -2462,8 +2507,11 @@
       <c r="H51" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K51" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>109</v>
       </c>
@@ -2488,8 +2536,11 @@
       <c r="H52" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K52" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>110</v>
       </c>
@@ -2521,33 +2572,36 @@
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
+    <row r="54" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="B54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K54" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>115</v>
       </c>
@@ -2579,7 +2633,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -2604,8 +2658,11 @@
       <c r="H56" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K56" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>117</v>
       </c>
@@ -2637,7 +2694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>118</v>
       </c>
@@ -2669,30 +2726,33 @@
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
+    <row r="59" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B59" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="B59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K59" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>124</v>
       </c>
@@ -2724,33 +2784,33 @@
         <v>126</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
+    <row r="61" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B61" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="B61" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>128</v>
       </c>
@@ -2770,7 +2830,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>131</v>
       </c>
@@ -2795,8 +2855,11 @@
       <c r="H63" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K63" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>132</v>
       </c>
@@ -2810,7 +2873,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>134</v>
       </c>
@@ -2830,7 +2893,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>137</v>
       </c>
@@ -2862,7 +2925,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>140</v>
       </c>
@@ -2894,7 +2957,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>143</v>
       </c>
@@ -2926,21 +2989,24 @@
         <v>148</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
+    <row r="69" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B69" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B69" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>150</v>
       </c>
@@ -2972,7 +3038,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>153</v>
       </c>
@@ -3004,7 +3070,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>156</v>
       </c>
@@ -3036,7 +3102,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>160</v>
       </c>
@@ -3068,7 +3134,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>165</v>
       </c>
@@ -3100,7 +3166,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>170</v>
       </c>
@@ -3125,8 +3191,11 @@
       <c r="H75" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K75" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>171</v>
       </c>
@@ -3158,7 +3227,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>172</v>
       </c>
@@ -3190,56 +3259,62 @@
         <v>173</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
+    <row r="78" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B78" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" t="s">
-        <v>13</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="B78" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H78" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
+      <c r="K78" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B79" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="B79" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K79" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>176</v>
       </c>
@@ -3271,7 +3346,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>179</v>
       </c>
@@ -3303,7 +3378,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>180</v>
       </c>
@@ -3335,7 +3410,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>181</v>
       </c>
@@ -3367,7 +3442,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>182</v>
       </c>
@@ -3387,7 +3462,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>183</v>
       </c>
@@ -3419,7 +3494,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>184</v>
       </c>
@@ -3451,7 +3526,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>185</v>
       </c>
@@ -3470,8 +3545,11 @@
       <c r="F87" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K87" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>186</v>
       </c>
@@ -3497,7 +3575,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>187</v>
       </c>
@@ -3529,7 +3607,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>188</v>
       </c>
@@ -3561,7 +3639,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>189</v>
       </c>
@@ -3587,7 +3665,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>190</v>
       </c>
@@ -3619,7 +3697,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>191</v>
       </c>
@@ -3651,7 +3729,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>192</v>
       </c>
@@ -3670,8 +3748,11 @@
       <c r="F94" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K94" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>193</v>
       </c>
@@ -3703,12 +3784,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>195</v>
       </c>
@@ -3734,7 +3815,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>196</v>
       </c>
@@ -3766,7 +3847,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>197</v>
       </c>
@@ -3798,7 +3879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>198</v>
       </c>
@@ -3824,7 +3905,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>199</v>
       </c>
@@ -3856,7 +3937,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>200</v>
       </c>
@@ -3888,7 +3969,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>201</v>
       </c>
@@ -3920,7 +4001,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="104" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>209</v>
       </c>
@@ -3949,7 +4030,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>210</v>
       </c>
@@ -3981,7 +4062,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>211</v>
       </c>

--- a/WADE003-arcticpred_dada2_QAQC_16SP1+2.Rdata.xlsx
+++ b/WADE003-arcticpred_dada2_QAQC_16SP1+2.Rdata.xlsx
@@ -5,22 +5,24 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5bd2331949789710/文档/WADE LAB/Arctic-predator-diet-microbiome/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MBall\OneDrive\Documents\UW-DOCS\WADE lab\Arctic-predator-diet-microbiome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{BE892F5F-F819-4BB0-A3EA-D3F73A48336A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A04D0154-B9DE-44B4-8D07-A1164725A11E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258D4E77-B103-4DBC-95BE-D3089DBEE166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Raw" sheetId="1" r:id="rId1"/>
+    <sheet name="no_Mammals.Bact" sheetId="2" r:id="rId2"/>
+    <sheet name="Unassigned" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="223">
   <si>
     <t>rownames</t>
   </si>
@@ -127,7 +129,7 @@
     <t>Coregonus</t>
   </si>
   <si>
-    <t>Coregonus sp</t>
+    <t>Coregonus spp.</t>
   </si>
   <si>
     <t>ATCACGAGGGCTTAGCTGTCTCCCATCTCCAGTCAATGAAATTGACCTCCCCGTGCAGAGGCGGGGATGATTACATAAGACGAGAAGACCCTATGGAGCTTTAGACCTAAAGTAAGTCACGTTTAATATGCTATGATAACAGCGAAAACTTAGTGATATTTACTGAAGTGTCTTTGGTTGGGACGACCGCGGGGTAAAACACAACCCCCATGTGGACCGGGGATATTATCCCTAATACTCAGAGCCTCTACTCCAAGTAACAGAAATTCTGACTTTTCTGATCCGGTATAACCG</t>
@@ -232,6 +234,12 @@
     <t>ATAACGAGGGCTTAACTGTCTCCTCTTTCAAGTCAATGAAATTGATCTCCCCGTGCAGAAGCGGGGATACAAACATAAGACGAGAAGACCCTATGGAGCTTTAGACACCAAGGTAGCCCACGTTAAAGACCCTGAACAAAGGACTAAACCAAGTGAACCCTGCCCTAATGTCTTTGGTTGGGGCGACCGCGGGGAAATAAAGAACCCCCACGTGGAACGGGAACACTCTTCCTACAACTAAGAGCTACAGCTCTAGTAAACAGAACTTCTGACCAACAAGATCCGGCAGTGCCG</t>
   </si>
   <si>
+    <t>Myoxocephalus</t>
+  </si>
+  <si>
+    <t>Myoxocephalus stelleri</t>
+  </si>
+  <si>
     <t>ATCACGAGGGCTTAGCTGTCTCCCATCTCCAGTCAATGAAATTGACCTCCCCGTGCAGAGGCGGGGATGATTACATAAGACGAGAAGACCCTATGGAGCTTTAGACCTAAAGTAAGTCACGTTTAATATGCTATGATAACAGCGAAAACTTAGTGATATTTACTGAAGTGTCTTTGGTTGGGGCGACCGCGGGGTAAAACACAACCCCCACGTGGACCGGGGATATTATCCCTAATACTCAGAGCCTCTACTCCAAGTAACAGAAATTCTGACTTTTCTGATCCGGTATAACCG</t>
   </si>
   <si>
@@ -280,12 +288,12 @@
     <t>Gadus</t>
   </si>
   <si>
+    <t>Gadus macrocephalus</t>
+  </si>
+  <si>
     <t>ATAACGAGGGCTTAACTGTCTCCTCTTTCAAGTCAATGAAATTGATCTCCCCGTGCAGAAGCGGGGATATAAACATAAGACGAGAAGACCCTATGGAGCTTTAGACACCAAGGTAGCCCACGTTAAAGACCCTGAACAAAGGACTAAACCAAGTGAGCCCTACCCTAATGTCTTTGGTTGGGGCGACCGCGGGGAAATAAAGAACCCCCACGTGGAACGGGAACACTCTTCCTACAACTAAGAGCTACAGCTCTAGTAAACAGAACTTCTGACCAACAAGATCCGGCAATGCCG</t>
   </si>
   <si>
-    <t>Myoxocephalus</t>
-  </si>
-  <si>
     <t>Myoxocephalus scorpius</t>
   </si>
   <si>
@@ -346,6 +354,12 @@
     <t>ATAACGAGGGCTTAACTGTCTCCTCTTTCAAGTCAATGAAATTGATCTCCCCGTGCAGAAGCGGGGATAAAAACATAAGACGAGAAGACCCTATGGAGCTTTAGACACCAAGGCAGCCCACGTTAAAGACCCTCAATAAAGGACTAAACCAAGTGAGCCCTGCCCTAATGTCTTTGGTTGGGGCGACCGCGGGGAATTAAAGAACCCCCACGTGGAACGGGAATACTCTTCCTACAACTAAGAGCTACAGCTCTAATAAACAGAACTTCTGACCAGCAAGATCCGGCAGTGCCG</t>
   </si>
   <si>
+    <t>Cottidae</t>
+  </si>
+  <si>
+    <t>Myoxocephalus quadricornis</t>
+  </si>
+  <si>
     <t>ATCACGAGGGCTTAGCTGTCTCCCATCTCCAGTCAATGAAATTGACCTCCCCGTGCAGAGGCGGGGATGATTACATAAGACGAGAAGACCCTATGGAGCTTTAGACCTAAAGTAAGTCACGTTTAATATGCTATGACAACAGCGAAAACTTAGTGATATTTACTGAAGTGTCTTTGGTTGGGGCGACCGCGGGGTAAAACACAACCCCCATGTGGACCGGGGATATTATCCCTAATACTCAGAGCCTCTACTCCAAGTAACAGAAATTCTGACTTTTCTGATCCGGTATAACCG</t>
   </si>
   <si>
@@ -361,297 +375,303 @@
     <t>Gasterosteidae</t>
   </si>
   <si>
+    <t>Pungitius</t>
+  </si>
+  <si>
+    <t>Pungitius pungitius</t>
+  </si>
+  <si>
+    <t>ATAACGAGGGCTTAACTGTCTCCTTCCCCCGGTCAATGAAATTGATCTCCCCGTGCAGAAGCGGGGATGAAACCATAAGACGAGAAGACCCTATGGAGCTTTAGACACACAGGTGGCCCATGTCAAATAACCCCCGCTAAGGGCCTGAACTAAGTGGAACCTGCCTTGATGTCTTCGGTTGGGGCGACCATGGGGAATACAAAACCCCCACGTGGAAGGGGAGCACACCCCTAAGTTACTTCTTCTCCCGCAAGCCAGAGCAACGGCTCTAACCAGCAGAAATTCTGACCAAAATGATCCGGTAATACCG</t>
+  </si>
+  <si>
+    <t>ATCACGAGGGCTTAGCTGTCTCCCATCTCCAGTCAATGAAATTGACCTCCCCGTGCAGAGGCGGGGATGATTACATAAGACGAGAAGACCCTATGGAGCTTTAGACCTAAAGTAAGTCACGTTTAATATGCTATGATAACAGCGAAAACTTAGTGATATTTACTGAAGTGTCTTTGGTTGGGGCGACCGCGGGGTAAAACACAACCCCCATGTGGACCGGGGATATTATCCCTAATACTCAGAACCTCTACTCCAAGTAACAGAAATTCTGACTTTTCTGATCCGGTATAACCG</t>
+  </si>
+  <si>
+    <t>ATCACGAGGGCTTAGCTGTCTCCTCTTCCAAGTCAATGAAATTGATCTGCCCGTGCAGAAGCGGACATAAGCACATAAGACGAGAAGACCCTATGGAGCTTTAGACACAAGGCAGATCACGTCAAACAACCTTGGATTAACAAGTAAAAACGCAGTGACCCCTAGCCCATATGTCTTTGGTTGGGGCGACCGCGGGGGAAAATTAAGCCCCCATGTGGACTGGGGGCACTGCCCTCACAGCCAAGAGCTACAACTCTAAGCACCAGAATATCTGACCAAAAATGATCCGGCAAACGCCG</t>
+  </si>
+  <si>
+    <t>ATAACGAGGGCTTAACTGTCTCCTCTTTCCAGTCAATGAAATTGATCTTCCCGTGCAGAAGCGGGAATAAAAACATAAGACGAGAAGACCCTATGGAGCTTTAGACACCAAGGCAGATCATGTTAAGAACCCTAAATAAAGGACTAAACCAAATGGAACCTACCCTAATGTCTTTGGTTGGGGCGACCGCGGGGAATTAAAAAACCCCCACGTGGAATGGGAGTACCCCTCCTACAGCTAAGAGCCACAGCTCTAGTAAACAGAATTTCTGACCAGTAAGATCCGGCAGTGCCG</t>
+  </si>
+  <si>
+    <t>Scorpaeniformes</t>
+  </si>
+  <si>
+    <t>Stichaeidae</t>
+  </si>
+  <si>
+    <t>Stichaeus</t>
+  </si>
+  <si>
+    <t>Stichaeus punctatus</t>
+  </si>
+  <si>
+    <t>ATCACGAGGGCTTAGCTGTCTCCTCTTCCAAGTCAATGAAATTGATCTGCCCGTGCAGAAGCGGACATAAGCACATAAGACGAGAAGACCCTATGGAGCTTTAGACACCAGGCAGATCACGTCAAACAACCTTGGATTAACAAGTAAAAACGCAGTGACCCCTAGCCCATATGTCTTTGGTTGGGGCGACCGCGGGGGAAAATTAAGCCCCCATGTGGACTGGGGGCACTGCCCCCACAGCCAAGAGCTACAGCTCTAAGCACCAGAATATCTGACCAAAAATGATCCGGCAAACGCCG</t>
+  </si>
+  <si>
+    <t>ATAACGAGGGCTTAACTGTCTCCTCTCTCCAGTCAATGAAATTGATCTTCCCGTGCAGAAGCGGGAATATAAACATAAGACGAGAAGACCCTATGGAGCTTTAGACACCAAGGCAGATCATGTTAATAACCCTGATTAAAGGACTAAACCAAGTGGTACCTGCCCTAATGTCTTTGGTTGGGGCGACCGCGGGGAATTGAAAAACCCCCACGTGGAATGGGAGCACCCCTCCTACAACTAAGAGCTACAGCTCTAGTAAACAGAAATTCTGACCAGTAAGATCCGGCAATGCCG</t>
+  </si>
+  <si>
+    <t>Lumpenus</t>
+  </si>
+  <si>
+    <t>Lumpenus spp.</t>
+  </si>
+  <si>
+    <t>ATAACGAGGGCTTAGCTGTCTCCTTTCTCTAGTCAATGAAATTGATCTCCCCGTGCAGAAGCGGGGGTAGAACCATAAGACGAGAAGACCCTATGGAGCTTTAGACGCCAAGACAGACCATGTTAAACACCTCCCCACAAGGAGCCCAAACCAAATGGTCCCTGCCCTAGTGTCTTTGGTTGGGGCGACCGCGGGGAAACATAAAACCCCCATGTGGAATGGGAGCACCCTCTCCTACAACTAAGAGCTACAGCTCTAATGAACAGAATTTCTGACCAACAAGATCCGGCAATGCCG</t>
+  </si>
+  <si>
+    <t>ATAACGAGGGCTTAACTGTCTCCTCTCTCCAGTCAATGAAATTGATCTTCCCGTGCAGAAGCGGGAATACAAACATAAGACGAGAAGACCCTATGGAGCTTTAGACACCAAGACAGATCATGTTAATAACCCTAATTAAAGGACTAAACCAAGTGGAACCTGCCCTAATGTCTTTGGTTGGGGCGACCGCGGGGAATTGAAAAACCCCCACGTGGAATGGGAGCACCCCTCCTACAACTAAGAACTACAGCTCTAGTAAACAGAAATTCTGACCAGTAAGATCCGGCAATGCCG</t>
+  </si>
+  <si>
+    <t>Acantholumpenus</t>
+  </si>
+  <si>
+    <t>Acantholumpenus mackayi</t>
+  </si>
+  <si>
+    <t>ATCACGAGGGCTTAGCTGTCTCCCATCTCCAGTCAATGAAATTGACCTCCCCGTGCAGAGGCGGGGATGATTACATAAGACGAGAAGACCCTATGGAGCTTTAGACCTAAAGTAAGTCACGTTTAATATGCTATGATAACAGCGAAAACTTAGTGATATTTACTGAAGTGTCTTTGGTTGGGGCGACCGCGGGGTAAAACACAACCCCCATGTGGACCGGGGATATTATCCCTAATACTCAGAGCCTCTACTCCCAGTAACAGAAATTCTGACTTTTCTGATCCGGTATAACCG</t>
+  </si>
+  <si>
+    <t>ATAACGAGGGCTTAACTGTCTCCTCTTTCAAGTCAATGAAATTGATCTCCCCGTGCAGAAGCGGGGATATAAACATAAGACGAGAAGACCCTATGGAGCTTTAGACACCAAGGTAGCCCACGTTAAAGACCCTAAACAAAGGACTAAACCAAGTGAGCCCTACCCTAATGTCTTTGGTTGGGGCGACCGCGGGGAAATAAAGAACCCCCACGTGGAACGGGAATACTCTTCCTACAACTAAGAGCTACAGCTCTAGTAAACAGAACTTCTGACCAACAAGATCCGGCAGTGCCG</t>
+  </si>
+  <si>
+    <t>Myoxocephalus jaok</t>
+  </si>
+  <si>
+    <t>ATAACGAGGGCTTAACTGTCTCCTCTTTCAAGTCAATGAAATTGATCTCCCCGTGCAGAAGCGGGGATAAAAACATAAGACGAGAAGACCCTATGGAGCTTTAGACACTAAGACAGCCCACGTTAAGCACCCTGAATAAAGGACTAAACCAAGTGGACCCTGCCCTAATGTCTTTGGTTGGGGCGACCGCGGGGAATTAAAGAACCCCCACGTGGAATGGGAATACTTTTCCTACAACTAAGAGCTACAGCTCTCATAAACAGAATTTCTGACCAACAAGATCCGGCAATGCCG</t>
+  </si>
+  <si>
+    <t>Gymnocanthus</t>
+  </si>
+  <si>
+    <t>Gymnocanthus tricuspis</t>
+  </si>
+  <si>
+    <t>ATAACGAGGGCTTAACTGTCTCCTCTTTCAAGTTAATGAAATTGATCTCCCCGTGCAGAAGCGGGGATAAAAACATAAGACGAGAAGACCCTATGGAGCTTTAGACACTAAGACAGCCCACGTTAAGCACCCTGAATAAAGGACTAAACCAAGTGGGCCCTGCCCTAATGTCTTTGGTTGGGGCGACCGCGGGGAATTAAAGAACCCCCACGTGGAGTGGGAATACTTTTCCTACAACTAAGAGCTACAGCTCTCATAAACAGAATTTCTGACCAACAAGATCCGGCAGTGCCG</t>
+  </si>
+  <si>
+    <t>Gymnocanthus pistilliger</t>
+  </si>
+  <si>
+    <t>ATCACGAGGGCTTAGCTGTCTCCCATCTCCAGTCAATGAAATTGACCTCCCCGTGCAGAGGCGGGGATGATTACATAAGACGAGAAGACCCTATGGAGCTTTAGACCTAAAGTAAGTCACGTTTAACATGCTGTGATAACAGTGAAAACTTAGTGATATTTACTGAAGTGTCTTTGGTTGGGGCGACCGCGGGGTAAAACACAACCCCCATGTGGACCGGGGATATTATCCCTAATACTCAGAGCCTCTACTCCAAGTAACAGAATTTCTGACTTTTCTGATCCGGTATAACCG</t>
+  </si>
+  <si>
+    <t>Boreogadus</t>
+  </si>
+  <si>
+    <t>Boreogadus saida</t>
+  </si>
+  <si>
+    <t>ATTAACCCAAACTAATAGGCCCTCGGCGTAAAGCGTGTTAAAGATCAGCCCACACTAAAGCTAAAACCTAACCAAGCCGTAAAAAGCTACCGTTAACATAAAATAAACCACGAAAGTGACTTTACTAATTCTGACTGCACGATAGCTAAGATCCAAACTGGGATTAGATACCCCACTATGCTGTCTCTTATCACATCTCCGAGCCCACGAGACACGGTCCAACATCTCGTATGCCGTCTTCTGC</t>
+  </si>
+  <si>
+    <t>Mammalia</t>
+  </si>
+  <si>
+    <t>Carnivora</t>
+  </si>
+  <si>
+    <t>Phocidae</t>
+  </si>
+  <si>
+    <t>Pusa</t>
+  </si>
+  <si>
+    <t>Pusa hispida</t>
+  </si>
+  <si>
+    <t>ATAACGAGGGCTTAACTGTCTCCTCTTTCAAGTCAATGAAATTGATCTCCCCGTGCAGAAGCGGGGATATAAACATAAGACGAGAAGACCCTATGGAGCTTTAGACACCAAGGTAGCCCACGTTAAAGACCCTGAACAAAGGACTAAACCAAGTGAGCCCTACCCTAATGTCTTTGGTTGGGGCGACCGCGGGGAAATAAAGAACCCCCACGTGGAACGGGAACACTCTTCCTACAACTAAGAGCTACAGCTCTAGTAAACAGAACTTCTGACCAGCAAGATCCGGCAATGCCG</t>
+  </si>
+  <si>
+    <t>Microcottus</t>
+  </si>
+  <si>
+    <t>Microcottus sellaris</t>
+  </si>
+  <si>
+    <t>ATAACGAGGGCTTAACTGTCTCCTCTTTCAAGTCAATGAAATTGATCTCCCCGTGCAGAAGCGGGGATACACACATAAGACGAGAAGACCCTATGGAGCTTTAGACACTAAGGCAGCCCACGTTAAAGACCCTGGATAAAGGACTAAACCAAGTGAGCCCTGCCCTAATGTCTTTGGTTGGGGCGACCGCGGGGAATTAAAGAACCCCCACGTGGAATGGGAACACTCTTCCTACAACTAAGAGCTACAGCTCTAGTAAACAGAACTTCTGACCAGCAAGATCCGGCAATGCCG</t>
+  </si>
+  <si>
+    <t>ATTAACCCAAATTAATAGGCCCTCGGCGTAAAGCGTGTTAAGGATTAACTCACACTAAAGTTAAAATCTAACCAAGCCGTAAAAAGCTACCGTTAACATAAAATAAACTACGAAAGTGACTTTATCAACTCTGACCACACGATAGCTAAGACCCAAACTGGGATTAGATACCCCACTATGCTGTCTCTTATACCATCTCCGAGCCCACGAGACGTAACTTGGTATCTCGTATGCCGTCTTCTGC</t>
+  </si>
+  <si>
+    <t>Erignathus</t>
+  </si>
+  <si>
+    <t>Erignathus barbatus</t>
+  </si>
+  <si>
+    <t>ATAACGAGGGCTTAACTGTCTCCTCTTTCAGGTCAATGAAATTGATCTTCCCGTGCAGAAGCGGGAATATAAACATAAGACGAGAAGACCCTATGGAGCTTTAGACACCAAGGTAGCCCACGTTAAGCACCCCGAATAAAGGACTAAACCAAGTGAGCCCTACCCTAATGTCTTTGGTTGGGGCGACCGCGGGGAATTAAATAACCCCCACGTGGAATGGGAGTACCTCTCCTAAAACTAAGAGCTACAGCTCTAATGACCAGAATTTCTGACCAACAAGATCCGGCAACGCCG</t>
+  </si>
+  <si>
+    <t>Agonidae</t>
+  </si>
+  <si>
+    <t>Pallasina</t>
+  </si>
+  <si>
+    <t>Pallasina barbata</t>
+  </si>
+  <si>
+    <t>CACACGAGGGTTTTACTGTCTCTTACTTCTAATCAGTGAAATTGACCTCCCCGTGAAGAGGCGGGGATAATACAATAAGACGAGAAGACCCTATGGAGCTTTAATTAATCAACCCAAAAAACACAAAACAGCACCACCAAGGGATAACAAAATTTTACATGGGTTGACAATTTCGGTTGGGGTGACCTCGGAGTACAAAAAACCCTCCGAGTGATTAAAACCTAGGCCTACTGGCCAAAGTGTAATATCACTTATTGATCCAAATTCTTG</t>
+  </si>
+  <si>
+    <t>Artiodactyla</t>
+  </si>
+  <si>
+    <t>Monodontidae</t>
+  </si>
+  <si>
+    <t>Delphinapterus</t>
+  </si>
+  <si>
+    <t>Delphinapterus leucas</t>
+  </si>
+  <si>
+    <t>ATCACGAGGGCTTAGCTGTCTCCTCTTTCAAGTCAATGAAATTGATCTGCCCGTGCAGAAGCGGACATAAGAACATAAGACGAGAAGACCCTATGGAGCTTTAGACACCCGGCAGACCCTGTTAAGTAGCTGAACTATCAGATTAAAACAAAGCGGCCCCTGGCCTACATGTCTTCGGTTGGGGCGACCACGGGGGAAAACAAAGCCCCCACGAGGATTAAGGAAAACCTCCTTATAACCACGAGCGACAGCTCTAAGTCTCAGAACTTCTGACCAAAAAGATCCGACACCAGTCG</t>
+  </si>
+  <si>
+    <t>Esociformes</t>
+  </si>
+  <si>
+    <t>Esocidae</t>
+  </si>
+  <si>
+    <t>Esox</t>
+  </si>
+  <si>
+    <t>Esox lucius</t>
+  </si>
+  <si>
+    <t>ATCACGAGGGCTTAGCTGTCTCCCATCTCCAGTCAATGAAATTGCCCTCCCCGTGCAGAGGCGGGGATGATTACATAAGACGAGAAGACCCTATGGAGCTTTAGACCTAAAGTAAGTCACGTTTAATATGCTATGATAACAGCGAAAACTTAGTGATATTTACTGAAGTGTCTTTGGTTGGGGCGACCGCGGGGTAAAACACAACCCCCATGTGGACCGGGGATATTATCCCTAATACTCAGAGCCTCTACTCCAAGTAACAGAAATTCTGACTTTTCTGATCCGGTATAACCG</t>
+  </si>
+  <si>
+    <t>ATCACGAGGGCTTAGCTGTCTCCTCTTCCAAGTCAATGAAATTGATCTGCCCGTGCAGAAGCGGACATAAGTACATAAGACGAGAAGACCCTATGGAGCTTTAGACACCCTGCAGATCACGTCAAAAACCTTGAACTAACAAGTAAAAACGCAGTGACCCCTAGCCCATATGTCTTTGGTTGGGGCGACCGCGGGGGAAAATAAAGCCCCCATGTGGACTGGGGGCACTGCCCCCACAGCCGAGAGCTACAGCTCTAAACACCAGAATTTCTGACCAAAAATGATCCGGCAAACGCCG</t>
+  </si>
+  <si>
+    <t>GAGGCCCAAGTTGACAAACACCGGCGTAAAGCGTGGTTAAGTAAAAACTCACACTAAAGCCAAACATCTTCCAGGCTGTTATACGCAACCGAAGACAGGAAGTTCAACCACGAAAGTGGCTTTATCTAGTCTGAACCCACGAAAGCTAAGGAACAAACTGGGATTAGATACCCCACTATGCTGTCTCTTATCACATCTCCGAGCCCACGAGACGTAACTTGGTATCTCGTATGCCGTCTTCTG</t>
+  </si>
+  <si>
+    <t>Myoxocephalus spp.</t>
+  </si>
+  <si>
+    <t>TAGACGAGGGCTTAGCTGTCTCCTCCCCCCGGTCAATGAAATTGATCTCCCCGTGCAGAAGCGGGGATATTAACATAAGACGAGAAGACCCTATGGAGCTTTAGACACTAGACAGCCCACGTTAAACTTCCCCTATAAAGAGGAAAAAACATTGTGATTCCTGTCTCTCCTGTCTTCGGTTGGGGCGACCGCGGAGGATAAAAAAGCCTCCATGTGGACCGAGGTTACTAACCTCACAACTTAGAGCTGCAGCTCCAAGCAACAGAAATTCTGACCAAAATGATCCGGCATAGCGCCG</t>
+  </si>
+  <si>
+    <t>ATCACGAGGGCTTAGCTGTCTCCTCTTCCAAGTCAATGAAATTGATCTGCCCGTGCAGAAGCGGACATAAGCACATAAGACGAGAAGACCCTATGGAGCTTTAGACACCAGGCAGATCACGTCAAACAACCTTGGATTAACAAGTAAAAACGCAGTGACCCCTAGCCCATATGTCTTTGGTTGGGGCGACCGCGGGGGAAAATTAAGCCCCCATGTGGACTGGGGGCACTGCCCCCACAGCCAAGAGCCACAGCTCTAAGCACCAGAATATCTGACCAAAAATGATCCGGCAAACGCCG</t>
+  </si>
+  <si>
+    <t>Oncorhynchus spp.</t>
+  </si>
+  <si>
+    <t>ATCACGAGGGCTTAGCTGTCTCCTCTCCCAAGTCAATGAAATTGATCTGCCCGTGCAGAAGCGGGCATAAGTACATAAGACGAGAAGACCCTATGGAGCTTTAGACACCAGGCAGATCACGTCAAGTAAACTTAAATTAACAAGTAGAAACGCAGTGACCCCTAGCCCATATGTCTTTGGTTGGGGCGACCGCGGGGGAAAATAAAGCCCCCATGTGGACTGGGGGCACTGCCCCCACAGCCGAGAGCTACAGCTCTAAGCACCAGAATTTCTGACCAAAAATGATCCGGCGAACGCCG</t>
+  </si>
+  <si>
+    <t>Salvelinus</t>
+  </si>
+  <si>
+    <t>Salvelinus spp.</t>
+  </si>
+  <si>
+    <t>ATAACGAGGGCTTAACTGTCTCCTCTTTCCAGTCAATGAAATTGATCTTCCCGTGCAGAAGCGGGAATAAAAACATAAGACGAGAAGACCCTATGGAGCTTTAGACACCAAGGCAGATCATGTTAAGAACCCTAAATAAAGGACTAAACCAAATGGAACCTGCCCTAATGTCTTTGGTTGGGGCGACCGCGGGGAATTAAAAAACCCCCACGTGGAATGGGAGTACCCCTCCTACAGCTAAGAGCCACAGCTCTAGTAAACAGAATTTCTGACCAGTAAGATCCGGCAGTGCCG</t>
+  </si>
+  <si>
+    <t>ATTAACCCAAACTAATAGGCCCTCGGCGTAAAGCGTGTTAAAGATCAGCCCACACTAAAGCTAAAACCTAACCAAGCCGTAAAAAGCTACCGTTAACATAAAATAAACCACGAAAGTGACTTTACTAATTCTGACTGCACGATAGCTAAGATCCAAACTGGGATTAGATACCCCACTATGCTGTCTCTTATACACTCTCCGAGCCCACGAGACACGGTCCAACATCTCGTATGCCGTCTTCTGC</t>
+  </si>
+  <si>
+    <t>TAGACGAGGGCTTAGCTGTCTCCTCCCCCCGGTCAATGAAATTGATCTCCCCGTGCAGAAGCGGGGATACTAACATAAGACGAGAAGACCCTATGGAGCTTTAGACACTAGACAGCCCACGTTAAACTTCCCCTATAAAGAGGAAAAAACATTGTGATTCCTGTCTCTCCTGTCTTCGGTTGGGGCGACCGCGGAGGATAAAAAAACCTCCATGTGGACCGAGGTTACTAACCTCACAACTTAGAGCTGCAGCTCCAAGCAACAGAAATTCTGACCAAAATGATCCGGCATAGCGCCG</t>
+  </si>
+  <si>
+    <t>GAGGCCCAAGTTGACAAACACCGGCGTAAAGAGTGGTTAAGTCAAAACTCACACTAAAGCCAAACATCTTCAAGACTGTTATACGCAACCGAAGACAGGAAGTTCAACCACGAAAGTGGCTTTATCTCATCTGAACCCACGAAAGCTAAGGAACAAACTGGGATTAGATACCCCACTATGCTGTCTCTTATACCATCTCCGAGCCCACGAGACGTAACTTGGTATCTCGTATGCCGTCTTCTG</t>
+  </si>
+  <si>
+    <t>ATTAACCCAAACTAATAGGCCCTCGGCGTAAAGCGTGTTAAAGATCAGCCCACACTAAAGCTAAAACCTAACCAAGCCGTAAAAAGCTACCGTTAACATAAAATAAACCACGAAAGTGACTTTACTAATTCTGACTGCACGATAGCTAAGATCCAAACTGGGATTAGATACCCCACTATGCTGTCTCTTATACCATCTCCGAGCCCACGAGACACGGTCCAACATCTCGTATGCCGTCTTCTGC</t>
+  </si>
+  <si>
+    <t>TAGACGAGGGCTTAGCTGTCTCCTCCCCCCAGTCAATGAAATTGATCTCCCCGTGCAGAAGCGGGGATACTAACATAAGACGAGAAGACCCTATGGAGCTTTAGACACTAGACAGCCCACGTCAAACTTCCCCCTCAAAGAGGAAAAAACATTGTGACTCCTGTCTCTCCTGTCTTCGGTTGGGGCGACCGCGGAGGATAAAAAAGCCTCCATGTGGACCGAGGTTACTAACCTCACAACTAAGAGCTGCAGCTCCAAGCAACAGAAATTCTGACCAAAAGGATCCGGCACAATGCCG</t>
+  </si>
+  <si>
+    <t>GAGGCCCAAGTTGACAGACTCCGGCGTAAAGAGTGGTTAAGTTAAAATTTATACTAAAGCCGAACATCCTCAAAGCTGTTATACGCACCCGAAGACAAGAAGTTCAACCACGAAGGTGGCTTTATTTAGTCTGAACCCACGAAAGCTACGGCACAAACTGGGATTAGATACCCCACTATGCTGTCTCTTAACACATCTCCGAGCCCACGAGACGTAACTTGGTATCTCGTATGCCGTCTTCTG</t>
+  </si>
+  <si>
+    <t>ATCACGAGGGCTTAGCTGTCTCCCATCTCCAGTCAATGAAATTGACCTCCCCGTGCAGAGGCGGGGATGATTACATAAGACGAGAAGACCCTATGGAGCTTTAATTAATCAACCCAAAAAACACAAAACAGCACCACCAAGGGATAACAAAATTTTACATGGGTTGACAATTTCGGTTGGGGTGACCTCGGAGTACAAAAAACCCTCCGAGTGATTAAAACCTAGGCCTACTGGCCAAAGTGTAATATCACTTATTGATCCAAATTCTTG</t>
+  </si>
+  <si>
+    <t>ATTAACCCAAATTAATAGGCCCTCGGCGTAAAGCGTGTTAAGGATTAACTCACACTAAAGTTAAAATCTAACCAAGCCGTAAAAAGCTACCGTTAACATAAAATAAACTACGAAAGTGACTTTATCAACTCTGACCACACGATAGCTAAGACCCAAACTGGGATTAGATACCCCACTATGCTGTCTCTTTACACATCTCCGAGCCCACGAGACGTAACTTGGTATCTCGTATGCCGTCTTCTGC</t>
+  </si>
+  <si>
+    <t>ATCACGAGGGCTTAGCTGTCTCCTCTTCCAAGTCAATGAAATTGATCTGCCCGTGCAGAAGCGGACATAAGCACATAAGACGAGAAGACCCTATGGAGCTTTAATTAATCAACCCAAAAAACACAAAACAGCACCACCAAGGGATAACAAAATTTTACATGGGTTGACAATTTCGGTTGGGGTGACCTCGGAGTACAAAAAACCCTCCGAGTGATTAAAACCTAGGCCTACTGGCCAAAGTGTAATATCACTTATTGATCCAAATTCTTG</t>
+  </si>
+  <si>
+    <t>ATCACGAGGGCTTAGCTGTCTCCCATCTCCAGTCAATGAAATTGACCTCCCCGTGAAGAGGCGGGGATAATACAATAAGACGAGAAGACCCTATGGAGCTTTAATTAATCAACCCAAAAAACACAAAACAGCACCACCAAGGGATAACAAAATTTTACATGGGTTGACAATTTCGGTTGGGGTGACCTCGGAGTACAAAAAACCCTCCGAGTGATTAAAACCTAGGCCTACTGGCCAAAGTGTAATATCACTTATTGATCCAAATTCTTG</t>
+  </si>
+  <si>
+    <t>GAGGCCCAAGTTGACAAACAACGGCGTAAAGAGTGGTTAGGGGATTTACTAAACTAGAGCCGAACGCTTTCAAAGCTGTTATACGCACCCGAAAGTATGAAACCCAATTACGAAAGTAGCTCTACTTATCCTGAACCCACGAAAGCTAAGAAACAAACTGGGATTAGATACCCCACTATGCTGTCTCTTATACCATCTCCGAGCCCACGAGACGTAACTTGGTATCTCGTATGCCGTCTTCTG</t>
+  </si>
+  <si>
+    <t>ATAACGAGGGTTTAACTGTCTCTTACTTCCAATCAGTGAAATTGACCTTCCCGTGAAGAGGCGGGAATATAATAATAAGACGAGAAGACCCTATGGAGCTTTAATTAACTAACTCAACAGAACAAATCCAGTCAACCAACAGGGAATAAAAACTTCTATAATGAGTTAGCAATTTAGGTTGGGGTGACCTCGGAGAACAAAACAACCTCCGAGTGATATAAACTAAGACAAACCAGTCAAAGTGCCACATCATTAATTGATCCAAAAATTTTTG</t>
+  </si>
+  <si>
+    <t>AGAGGCCCAAGTTGATAGCCACCGGCGTAAAGCGTGGTTAAGTTAAAAGTCATGCTAAAGCCAAACATCTTCAAGACTGTTATACGTAACCGAAGACAGGAAGTTCAACCACGAAAGTGGCTTTATTGATCTGAACCCACGAAAGCTAGGAAACAAACTGGGATTAGATACCCCACTATGCTGTCTCTTATACCATCTCCGAGCCCACGAGACGTAACTTGGTATCTCGTATGCCGTCTTCTGC</t>
+  </si>
+  <si>
+    <t>GAGGCCCAAGTTGACAAACACCGGCGTAAAGCGTGGTTAAGTAAAAACTCACACTAAAGCCAAACATCTTCCAGGCTGTTATACGCAACCGAAGACAGGAAGTTCAACCACGAAAGTGGCTTTATCTAGTCTGAACCCACGAAAGCTAAGGAACAAACTGGGATTAGATACCCCACTATGCTGTCTCTTATACACTCTCCGAGCCCACGAGACGTAACTTGGTATCTCGTATGCCGTCTTCTG</t>
+  </si>
+  <si>
+    <t>ATCACAAGGGCTTAGCTGTCTCCTCTTCCAAGTCAGTGAAATTGATCTGCCCGTGCAGAAGCGGGCATAAGTACATAAGACGTGAAGACACTATGGAGCTTTAGACACCAGGCAGATCACGTCAAGCAACTTTGAGTTAACAAGTAAAAACGCAGTGACCCCTAGCCCATATGTCTTTGGTTGGGGCGACCGCGGGGGAAAACAAAGCCCCCATGTGGACTGGGGGCACTGCCCCCACAGCCGAGAGCTACAGCTCTAAGCACCAGAATTTCTGACCAGAAATGATCCGGCGAACGCCG</t>
+  </si>
+  <si>
+    <t>ATAACGAGGGCTTAACTGTCTCCTTCCCCTGGTCAATGAAATTGATCTCCCCGTGCAGAAGCGGGGATGAAACCATAAGACGAGAAGACCCTATGGAGCTTTAGACACTAGACAGCCCACGTTAAACTTCCCCTATAAAGAGGAAAAAACATTGTGATTCCTGTCTCTCCTGTCTTCGGTTGGGGCGACCGCGGAGGATAAAAAAGCCTCCATGTGGACCGAGGTTACTAACCTCACAACTTAGAGCTGCAGCTCCAAGCAACAGAAATTCTGACCAAAATGATCCGGCATAGCGCCG</t>
+  </si>
+  <si>
+    <t>GAGGCCCAAGCTGATAGACCCCGGCGTAAAGAGTGGTTAAGATAAGCTTAAAACTAAAGCCGAACACCCTCACAGCTGTTATACGCACCCGAGAGTAAGAAGCCCAACTACGAAAGTGGCTTTACAACCCCTGAACCCACGAAAGCTATGACACAAACTGGGATTAGATACCCCACTATGCTGTCTCTATACACATCTCCGAGCCCACGAGACGTAACTTGGTATCTCGTATGCCGTCTTCTG</t>
+  </si>
+  <si>
+    <t>ATCACGAGGGCTTAGCTGTCTCCCATCTCCAGTCAATGAAATTGACCTCCCCGTGCAGAGGCGGGGATGATTACATAAGACGAGAAGACCCTATGGAGCTTTAGACCTAAAGTAAGTCACGTTTAATATGCTATAATAACAGCGAAAACTTAGTGAATATTACTGAAGTGTCTTTGGTTGGGGCGACCGCGGGGTAAAACACAACCCCCATGTGGACCGGGGATATTATCCCTAATACTCAGAGCCTCTACTCCAAGTAACAGAAATTCTGACCAAAATGATCCGGCATAGCGCCG</t>
+  </si>
+  <si>
+    <t>ATCACGAGGGCTTAGCTGTCTCCTCTTCCAAGTCAGTGAAATTGACCTCCCCGTGAAGAGGCGGGGATAATACAATAAGACGAGAAGACCCTATGGAGCTTTAATTAATCAACCCAAAAAACACAAAACAGCACCACCAAGGGATAACAAAATTTTACATGGGTTGACAATTTCGGTTGGGGTGACCTCGGAGTACAAAAAACCCTCCGAGTGATTAAAACCTAGGCCTACTGGCCAAAGTGTAATATCACTTATTGATCCAAATTCTTG</t>
+  </si>
+  <si>
+    <t>TTACTGTCTCTTACTTCTAATCAGTGAAATTGACCTCCCCGTGAAGAGGCGGGGATAATACAATAAGACGAGAAGACCCTATGGAGCTTTAATTAATCAACCCAAAAAACACAAAACAGCACCACCAAGGGATAACAAAATTTTACATGGGTTGACAATTTCGGTTGGGGTGACCTCGGAGTACAAAAAACCCTCCGAGTGATTAAAACCTAGGCCTACTGGCCAAAGTGTAATATCACTTATTGATCCAAATTCTTG</t>
+  </si>
+  <si>
+    <t>ATCACGAGGGCTTAGCTGTCTCCTCTTCCAAGTCAGTGAAATTGATCTGCCCGTGCAGAAGCGGGCATAAGTACATAAGACGAGAAGACCCTATGGAGCTTTAATTAATCAACCCAAAAAACACAAAACAGCACCACCAAGGGATAACAAAATTTTACATGGGTTGACAATTTCGGTTGGGGTGACCTCGGAGTACAAAAAACCCTCCGAGTGATTAAAACCTAGGCCTACTGGCCAAAGTGTAATATCACTTATTGATCCAAATTCTTG</t>
+  </si>
+  <si>
+    <t>GTGCAAGCGTTACTCGGAATCACTGGGCGTAAAGAGTGCGTAGGCGGGAAGGTAAGTCAGATGTGAAATCCTGTAGCTTAACTACAGAACTGCATTTGAAACTACTTTTCTAGAGTGTGGGAGAGGTAGGTGGAATTCTTGGTGTAGGGGTAAAATCCGTAGAGATCAAGAGGAATACTCATTGCGAAGGCGACCTGCTGGAACATTACTGACGCTCATGCACGAAAGCGTGGGGAGCAA</t>
+  </si>
+  <si>
+    <t>Bacteria</t>
+  </si>
+  <si>
+    <t>Campylobacterota</t>
+  </si>
+  <si>
+    <t>Epsilonproteobacteria</t>
+  </si>
+  <si>
+    <t>Campylobacterales</t>
+  </si>
+  <si>
+    <t>Helicobacteraceae</t>
+  </si>
+  <si>
+    <t>Helicobacter</t>
+  </si>
+  <si>
+    <t>Helicobacter spp.</t>
+  </si>
+  <si>
+    <t>ATAACGAGGGCTTAGCTGTCTCCTTTTTCCAGTCAATGAAATTGATCTCCCCGTGCAGAAGCGGGGATTATTACATAAGACGAGAAGACCCTATGGAGCTTTAGACACTAAAGTGGATCATGTCAATGACCCTAAATAAAGGATTGAACAAGATGGAACCCACCCTGATGTCTTTGGTTGGGGCGACCGCGGGGAAATAAATAACCCCCATGTGGAATGGGAGCACCCCTCCTACAGCTGAGAGTTACAACTCTAATAAACAGAATTTCTGACCAAAAAGATCCGGCAATGCCG</t>
+  </si>
+  <si>
     <t>Gasterosteus</t>
   </si>
   <si>
     <t>Gasterosteus aculeatus</t>
   </si>
   <si>
-    <t>ATAACGAGGGCTTAACTGTCTCCTTCCCCCGGTCAATGAAATTGATCTCCCCGTGCAGAAGCGGGGATGAAACCATAAGACGAGAAGACCCTATGGAGCTTTAGACACACAGGTGGCCCATGTCAAATAACCCCCGCTAAGGGCCTGAACTAAGTGGAACCTGCCTTGATGTCTTCGGTTGGGGCGACCATGGGGAATACAAAACCCCCACGTGGAAGGGGAGCACACCCCTAAGTTACTTCTTCTCCCGCAAGCCAGAGCAACGGCTCTAACCAGCAGAAATTCTGACCAAAATGATCCGGTAATACCG</t>
-  </si>
-  <si>
-    <t>ATCACGAGGGCTTAGCTGTCTCCCATCTCCAGTCAATGAAATTGACCTCCCCGTGCAGAGGCGGGGATGATTACATAAGACGAGAAGACCCTATGGAGCTTTAGACCTAAAGTAAGTCACGTTTAATATGCTATGATAACAGCGAAAACTTAGTGATATTTACTGAAGTGTCTTTGGTTGGGGCGACCGCGGGGTAAAACACAACCCCCATGTGGACCGGGGATATTATCCCTAATACTCAGAACCTCTACTCCAAGTAACAGAAATTCTGACTTTTCTGATCCGGTATAACCG</t>
-  </si>
-  <si>
-    <t>ATCACGAGGGCTTAGCTGTCTCCTCTTCCAAGTCAATGAAATTGATCTGCCCGTGCAGAAGCGGACATAAGCACATAAGACGAGAAGACCCTATGGAGCTTTAGACACAAGGCAGATCACGTCAAACAACCTTGGATTAACAAGTAAAAACGCAGTGACCCCTAGCCCATATGTCTTTGGTTGGGGCGACCGCGGGGGAAAATTAAGCCCCCATGTGGACTGGGGGCACTGCCCTCACAGCCAAGAGCTACAACTCTAAGCACCAGAATATCTGACCAAAAATGATCCGGCAAACGCCG</t>
-  </si>
-  <si>
-    <t>ATAACGAGGGCTTAACTGTCTCCTCTTTCCAGTCAATGAAATTGATCTTCCCGTGCAGAAGCGGGAATAAAAACATAAGACGAGAAGACCCTATGGAGCTTTAGACACCAAGGCAGATCATGTTAAGAACCCTAAATAAAGGACTAAACCAAATGGAACCTACCCTAATGTCTTTGGTTGGGGCGACCGCGGGGAATTAAAAAACCCCCACGTGGAATGGGAGTACCCCTCCTACAGCTAAGAGCCACAGCTCTAGTAAACAGAATTTCTGACCAGTAAGATCCGGCAGTGCCG</t>
-  </si>
-  <si>
-    <t>Scorpaeniformes</t>
-  </si>
-  <si>
-    <t>Stichaeidae</t>
-  </si>
-  <si>
-    <t>Stichaeus</t>
-  </si>
-  <si>
-    <t>Stichaeus punctatus</t>
-  </si>
-  <si>
-    <t>ATCACGAGGGCTTAGCTGTCTCCTCTTCCAAGTCAATGAAATTGATCTGCCCGTGCAGAAGCGGACATAAGCACATAAGACGAGAAGACCCTATGGAGCTTTAGACACCAGGCAGATCACGTCAAACAACCTTGGATTAACAAGTAAAAACGCAGTGACCCCTAGCCCATATGTCTTTGGTTGGGGCGACCGCGGGGGAAAATTAAGCCCCCATGTGGACTGGGGGCACTGCCCCCACAGCCAAGAGCTACAGCTCTAAGCACCAGAATATCTGACCAAAAATGATCCGGCAAACGCCG</t>
-  </si>
-  <si>
-    <t>ATAACGAGGGCTTAACTGTCTCCTCTCTCCAGTCAATGAAATTGATCTTCCCGTGCAGAAGCGGGAATATAAACATAAGACGAGAAGACCCTATGGAGCTTTAGACACCAAGGCAGATCATGTTAATAACCCTGATTAAAGGACTAAACCAAGTGGTACCTGCCCTAATGTCTTTGGTTGGGGCGACCGCGGGGAATTGAAAAACCCCCACGTGGAATGGGAGCACCCCTCCTACAACTAAGAGCTACAGCTCTAGTAAACAGAAATTCTGACCAGTAAGATCCGGCAATGCCG</t>
-  </si>
-  <si>
-    <t>Lumpenus</t>
-  </si>
-  <si>
-    <t>Lumpenus spp.</t>
-  </si>
-  <si>
-    <t>ATAACGAGGGCTTAGCTGTCTCCTTTCTCTAGTCAATGAAATTGATCTCCCCGTGCAGAAGCGGGGGTAGAACCATAAGACGAGAAGACCCTATGGAGCTTTAGACGCCAAGACAGACCATGTTAAACACCTCCCCACAAGGAGCCCAAACCAAATGGTCCCTGCCCTAGTGTCTTTGGTTGGGGCGACCGCGGGGAAACATAAAACCCCCATGTGGAATGGGAGCACCCTCTCCTACAACTAAGAGCTACAGCTCTAATGAACAGAATTTCTGACCAACAAGATCCGGCAATGCCG</t>
-  </si>
-  <si>
-    <t>ATAACGAGGGCTTAACTGTCTCCTCTCTCCAGTCAATGAAATTGATCTTCCCGTGCAGAAGCGGGAATACAAACATAAGACGAGAAGACCCTATGGAGCTTTAGACACCAAGACAGATCATGTTAATAACCCTAATTAAAGGACTAAACCAAGTGGAACCTGCCCTAATGTCTTTGGTTGGGGCGACCGCGGGGAATTGAAAAACCCCCACGTGGAATGGGAGCACCCCTCCTACAACTAAGAACTACAGCTCTAGTAAACAGAAATTCTGACCAGTAAGATCCGGCAATGCCG</t>
-  </si>
-  <si>
-    <t>Acantholumpenus</t>
-  </si>
-  <si>
-    <t>Acantholumpenus mackayi</t>
-  </si>
-  <si>
-    <t>ATCACGAGGGCTTAGCTGTCTCCCATCTCCAGTCAATGAAATTGACCTCCCCGTGCAGAGGCGGGGATGATTACATAAGACGAGAAGACCCTATGGAGCTTTAGACCTAAAGTAAGTCACGTTTAATATGCTATGATAACAGCGAAAACTTAGTGATATTTACTGAAGTGTCTTTGGTTGGGGCGACCGCGGGGTAAAACACAACCCCCATGTGGACCGGGGATATTATCCCTAATACTCAGAGCCTCTACTCCCAGTAACAGAAATTCTGACTTTTCTGATCCGGTATAACCG</t>
-  </si>
-  <si>
-    <t>ATAACGAGGGCTTAACTGTCTCCTCTTTCAAGTCAATGAAATTGATCTCCCCGTGCAGAAGCGGGGATATAAACATAAGACGAGAAGACCCTATGGAGCTTTAGACACCAAGGTAGCCCACGTTAAAGACCCTAAACAAAGGACTAAACCAAGTGAGCCCTACCCTAATGTCTTTGGTTGGGGCGACCGCGGGGAAATAAAGAACCCCCACGTGGAACGGGAATACTCTTCCTACAACTAAGAGCTACAGCTCTAGTAAACAGAACTTCTGACCAACAAGATCCGGCAGTGCCG</t>
-  </si>
-  <si>
-    <t>Myoxocephalus jaok</t>
-  </si>
-  <si>
-    <t>ATAACGAGGGCTTAACTGTCTCCTCTTTCAAGTCAATGAAATTGATCTCCCCGTGCAGAAGCGGGGATAAAAACATAAGACGAGAAGACCCTATGGAGCTTTAGACACTAAGACAGCCCACGTTAAGCACCCTGAATAAAGGACTAAACCAAGTGGACCCTGCCCTAATGTCTTTGGTTGGGGCGACCGCGGGGAATTAAAGAACCCCCACGTGGAATGGGAATACTTTTCCTACAACTAAGAGCTACAGCTCTCATAAACAGAATTTCTGACCAACAAGATCCGGCAATGCCG</t>
-  </si>
-  <si>
-    <t>Gymnocanthus</t>
-  </si>
-  <si>
-    <t>Gymnocanthus tricuspis</t>
-  </si>
-  <si>
-    <t>ATAACGAGGGCTTAACTGTCTCCTCTTTCAAGTTAATGAAATTGATCTCCCCGTGCAGAAGCGGGGATAAAAACATAAGACGAGAAGACCCTATGGAGCTTTAGACACTAAGACAGCCCACGTTAAGCACCCTGAATAAAGGACTAAACCAAGTGGGCCCTGCCCTAATGTCTTTGGTTGGGGCGACCGCGGGGAATTAAAGAACCCCCACGTGGAGTGGGAATACTTTTCCTACAACTAAGAGCTACAGCTCTCATAAACAGAATTTCTGACCAACAAGATCCGGCAGTGCCG</t>
-  </si>
-  <si>
-    <t>Cottidae</t>
-  </si>
-  <si>
-    <t>Gymnocanthus pistilliger</t>
-  </si>
-  <si>
-    <t>ATCACGAGGGCTTAGCTGTCTCCCATCTCCAGTCAATGAAATTGACCTCCCCGTGCAGAGGCGGGGATGATTACATAAGACGAGAAGACCCTATGGAGCTTTAGACCTAAAGTAAGTCACGTTTAACATGCTGTGATAACAGTGAAAACTTAGTGATATTTACTGAAGTGTCTTTGGTTGGGGCGACCGCGGGGTAAAACACAACCCCCATGTGGACCGGGGATATTATCCCTAATACTCAGAGCCTCTACTCCAAGTAACAGAATTTCTGACTTTTCTGATCCGGTATAACCG</t>
-  </si>
-  <si>
-    <t>Boreogadus</t>
-  </si>
-  <si>
-    <t>Boreogadus saida</t>
-  </si>
-  <si>
-    <t>ATTAACCCAAACTAATAGGCCCTCGGCGTAAAGCGTGTTAAAGATCAGCCCACACTAAAGCTAAAACCTAACCAAGCCGTAAAAAGCTACCGTTAACATAAAATAAACCACGAAAGTGACTTTACTAATTCTGACTGCACGATAGCTAAGATCCAAACTGGGATTAGATACCCCACTATGCTGTCTCTTATCACATCTCCGAGCCCACGAGACACGGTCCAACATCTCGTATGCCGTCTTCTGC</t>
-  </si>
-  <si>
-    <t>Mammalia</t>
-  </si>
-  <si>
-    <t>Carnivora</t>
-  </si>
-  <si>
-    <t>Phocidae</t>
-  </si>
-  <si>
-    <t>Pusa</t>
-  </si>
-  <si>
-    <t>Pusa hispida</t>
-  </si>
-  <si>
-    <t>ATAACGAGGGCTTAACTGTCTCCTCTTTCAAGTCAATGAAATTGATCTCCCCGTGCAGAAGCGGGGATATAAACATAAGACGAGAAGACCCTATGGAGCTTTAGACACCAAGGTAGCCCACGTTAAAGACCCTGAACAAAGGACTAAACCAAGTGAGCCCTACCCTAATGTCTTTGGTTGGGGCGACCGCGGGGAAATAAAGAACCCCCACGTGGAACGGGAACACTCTTCCTACAACTAAGAGCTACAGCTCTAGTAAACAGAACTTCTGACCAGCAAGATCCGGCAATGCCG</t>
-  </si>
-  <si>
-    <t>ATAACGAGGGCTTAACTGTCTCCTCTTTCAAGTCAATGAAATTGATCTCCCCGTGCAGAAGCGGGGATACACACATAAGACGAGAAGACCCTATGGAGCTTTAGACACTAAGGCAGCCCACGTTAAAGACCCTGGATAAAGGACTAAACCAAGTGAGCCCTGCCCTAATGTCTTTGGTTGGGGCGACCGCGGGGAATTAAAGAACCCCCACGTGGAATGGGAACACTCTTCCTACAACTAAGAGCTACAGCTCTAGTAAACAGAACTTCTGACCAGCAAGATCCGGCAATGCCG</t>
-  </si>
-  <si>
-    <t>Microcottus</t>
-  </si>
-  <si>
-    <t>Microcottus sellaris</t>
-  </si>
-  <si>
-    <t>ATTAACCCAAATTAATAGGCCCTCGGCGTAAAGCGTGTTAAGGATTAACTCACACTAAAGTTAAAATCTAACCAAGCCGTAAAAAGCTACCGTTAACATAAAATAAACTACGAAAGTGACTTTATCAACTCTGACCACACGATAGCTAAGACCCAAACTGGGATTAGATACCCCACTATGCTGTCTCTTATACCATCTCCGAGCCCACGAGACGTAACTTGGTATCTCGTATGCCGTCTTCTGC</t>
-  </si>
-  <si>
-    <t>Erignathus</t>
-  </si>
-  <si>
-    <t>Erignathus barbatus</t>
-  </si>
-  <si>
-    <t>ATAACGAGGGCTTAACTGTCTCCTCTTTCAGGTCAATGAAATTGATCTTCCCGTGCAGAAGCGGGAATATAAACATAAGACGAGAAGACCCTATGGAGCTTTAGACACCAAGGTAGCCCACGTTAAGCACCCCGAATAAAGGACTAAACCAAGTGAGCCCTACCCTAATGTCTTTGGTTGGGGCGACCGCGGGGAATTAAATAACCCCCACGTGGAATGGGAGTACCTCTCCTAAAACTAAGAGCTACAGCTCTAATGACCAGAATTTCTGACCAACAAGATCCGGCAACGCCG</t>
-  </si>
-  <si>
-    <t>Agonidae</t>
-  </si>
-  <si>
-    <t>Pallasina</t>
-  </si>
-  <si>
-    <t>Pallasina barbata</t>
-  </si>
-  <si>
-    <t>CACACGAGGGTTTTACTGTCTCTTACTTCTAATCAGTGAAATTGACCTCCCCGTGAAGAGGCGGGGATAATACAATAAGACGAGAAGACCCTATGGAGCTTTAATTAATCAACCCAAAAAACACAAAACAGCACCACCAAGGGATAACAAAATTTTACATGGGTTGACAATTTCGGTTGGGGTGACCTCGGAGTACAAAAAACCCTCCGAGTGATTAAAACCTAGGCCTACTGGCCAAAGTGTAATATCACTTATTGATCCAAATTCTTG</t>
-  </si>
-  <si>
-    <t>Artiodactyla</t>
-  </si>
-  <si>
-    <t>Monodontidae</t>
-  </si>
-  <si>
-    <t>Delphinapterus</t>
-  </si>
-  <si>
-    <t>Delphinapterus leucas</t>
-  </si>
-  <si>
-    <t>ATCACGAGGGCTTAGCTGTCTCCTCTTTCAAGTCAATGAAATTGATCTGCCCGTGCAGAAGCGGACATAAGAACATAAGACGAGAAGACCCTATGGAGCTTTAGACACCCGGCAGACCCTGTTAAGTAGCTGAACTATCAGATTAAAACAAAGCGGCCCCTGGCCTACATGTCTTCGGTTGGGGCGACCACGGGGGAAAACAAAGCCCCCACGAGGATTAAGGAAAACCTCCTTATAACCACGAGCGACAGCTCTAAGTCTCAGAACTTCTGACCAAAAAGATCCGACACCAGTCG</t>
-  </si>
-  <si>
-    <t>Esociformes</t>
-  </si>
-  <si>
-    <t>Esocidae</t>
-  </si>
-  <si>
-    <t>Esox</t>
-  </si>
-  <si>
-    <t>Esox lucius</t>
-  </si>
-  <si>
-    <t>ATCACGAGGGCTTAGCTGTCTCCCATCTCCAGTCAATGAAATTGCCCTCCCCGTGCAGAGGCGGGGATGATTACATAAGACGAGAAGACCCTATGGAGCTTTAGACCTAAAGTAAGTCACGTTTAATATGCTATGATAACAGCGAAAACTTAGTGATATTTACTGAAGTGTCTTTGGTTGGGGCGACCGCGGGGTAAAACACAACCCCCATGTGGACCGGGGATATTATCCCTAATACTCAGAGCCTCTACTCCAAGTAACAGAAATTCTGACTTTTCTGATCCGGTATAACCG</t>
-  </si>
-  <si>
-    <t>ATCACGAGGGCTTAGCTGTCTCCTCTTCCAAGTCAATGAAATTGATCTGCCCGTGCAGAAGCGGACATAAGTACATAAGACGAGAAGACCCTATGGAGCTTTAGACACCCTGCAGATCACGTCAAAAACCTTGAACTAACAAGTAAAAACGCAGTGACCCCTAGCCCATATGTCTTTGGTTGGGGCGACCGCGGGGGAAAATAAAGCCCCCATGTGGACTGGGGGCACTGCCCCCACAGCCGAGAGCTACAGCTCTAAACACCAGAATTTCTGACCAAAAATGATCCGGCAAACGCCG</t>
-  </si>
-  <si>
-    <t>GAGGCCCAAGTTGACAAACACCGGCGTAAAGCGTGGTTAAGTAAAAACTCACACTAAAGCCAAACATCTTCCAGGCTGTTATACGCAACCGAAGACAGGAAGTTCAACCACGAAAGTGGCTTTATCTAGTCTGAACCCACGAAAGCTAAGGAACAAACTGGGATTAGATACCCCACTATGCTGTCTCTTATCACATCTCCGAGCCCACGAGACGTAACTTGGTATCTCGTATGCCGTCTTCTG</t>
-  </si>
-  <si>
-    <t>Myoxocephalus spp.</t>
-  </si>
-  <si>
-    <t>TAGACGAGGGCTTAGCTGTCTCCTCCCCCCGGTCAATGAAATTGATCTCCCCGTGCAGAAGCGGGGATATTAACATAAGACGAGAAGACCCTATGGAGCTTTAGACACTAGACAGCCCACGTTAAACTTCCCCTATAAAGAGGAAAAAACATTGTGATTCCTGTCTCTCCTGTCTTCGGTTGGGGCGACCGCGGAGGATAAAAAAGCCTCCATGTGGACCGAGGTTACTAACCTCACAACTTAGAGCTGCAGCTCCAAGCAACAGAAATTCTGACCAAAATGATCCGGCATAGCGCCG</t>
-  </si>
-  <si>
-    <t>ATCACGAGGGCTTAGCTGTCTCCTCTTCCAAGTCAATGAAATTGATCTGCCCGTGCAGAAGCGGACATAAGCACATAAGACGAGAAGACCCTATGGAGCTTTAGACACCAGGCAGATCACGTCAAACAACCTTGGATTAACAAGTAAAAACGCAGTGACCCCTAGCCCATATGTCTTTGGTTGGGGCGACCGCGGGGGAAAATTAAGCCCCCATGTGGACTGGGGGCACTGCCCCCACAGCCAAGAGCCACAGCTCTAAGCACCAGAATATCTGACCAAAAATGATCCGGCAAACGCCG</t>
-  </si>
-  <si>
-    <t>ATCACGAGGGCTTAGCTGTCTCCTCTCCCAAGTCAATGAAATTGATCTGCCCGTGCAGAAGCGGGCATAAGTACATAAGACGAGAAGACCCTATGGAGCTTTAGACACCAGGCAGATCACGTCAAGTAAACTTAAATTAACAAGTAGAAACGCAGTGACCCCTAGCCCATATGTCTTTGGTTGGGGCGACCGCGGGGGAAAATAAAGCCCCCATGTGGACTGGGGGCACTGCCCCCACAGCCGAGAGCTACAGCTCTAAGCACCAGAATTTCTGACCAAAAATGATCCGGCGAACGCCG</t>
-  </si>
-  <si>
-    <t>Salvelinus</t>
-  </si>
-  <si>
-    <t>Salvelinus spp.</t>
-  </si>
-  <si>
-    <t>ATAACGAGGGCTTAACTGTCTCCTCTTTCCAGTCAATGAAATTGATCTTCCCGTGCAGAAGCGGGAATAAAAACATAAGACGAGAAGACCCTATGGAGCTTTAGACACCAAGGCAGATCATGTTAAGAACCCTAAATAAAGGACTAAACCAAATGGAACCTGCCCTAATGTCTTTGGTTGGGGCGACCGCGGGGAATTAAAAAACCCCCACGTGGAATGGGAGTACCCCTCCTACAGCTAAGAGCCACAGCTCTAGTAAACAGAATTTCTGACCAGTAAGATCCGGCAGTGCCG</t>
-  </si>
-  <si>
-    <t>ATTAACCCAAACTAATAGGCCCTCGGCGTAAAGCGTGTTAAAGATCAGCCCACACTAAAGCTAAAACCTAACCAAGCCGTAAAAAGCTACCGTTAACATAAAATAAACCACGAAAGTGACTTTACTAATTCTGACTGCACGATAGCTAAGATCCAAACTGGGATTAGATACCCCACTATGCTGTCTCTTATACACTCTCCGAGCCCACGAGACACGGTCCAACATCTCGTATGCCGTCTTCTGC</t>
-  </si>
-  <si>
-    <t>TAGACGAGGGCTTAGCTGTCTCCTCCCCCCGGTCAATGAAATTGATCTCCCCGTGCAGAAGCGGGGATACTAACATAAGACGAGAAGACCCTATGGAGCTTTAGACACTAGACAGCCCACGTTAAACTTCCCCTATAAAGAGGAAAAAACATTGTGATTCCTGTCTCTCCTGTCTTCGGTTGGGGCGACCGCGGAGGATAAAAAAACCTCCATGTGGACCGAGGTTACTAACCTCACAACTTAGAGCTGCAGCTCCAAGCAACAGAAATTCTGACCAAAATGATCCGGCATAGCGCCG</t>
-  </si>
-  <si>
-    <t>GAGGCCCAAGTTGACAAACACCGGCGTAAAGAGTGGTTAAGTCAAAACTCACACTAAAGCCAAACATCTTCAAGACTGTTATACGCAACCGAAGACAGGAAGTTCAACCACGAAAGTGGCTTTATCTCATCTGAACCCACGAAAGCTAAGGAACAAACTGGGATTAGATACCCCACTATGCTGTCTCTTATACCATCTCCGAGCCCACGAGACGTAACTTGGTATCTCGTATGCCGTCTTCTG</t>
-  </si>
-  <si>
-    <t>ATTAACCCAAACTAATAGGCCCTCGGCGTAAAGCGTGTTAAAGATCAGCCCACACTAAAGCTAAAACCTAACCAAGCCGTAAAAAGCTACCGTTAACATAAAATAAACCACGAAAGTGACTTTACTAATTCTGACTGCACGATAGCTAAGATCCAAACTGGGATTAGATACCCCACTATGCTGTCTCTTATACCATCTCCGAGCCCACGAGACACGGTCCAACATCTCGTATGCCGTCTTCTGC</t>
-  </si>
-  <si>
-    <t>TAGACGAGGGCTTAGCTGTCTCCTCCCCCCAGTCAATGAAATTGATCTCCCCGTGCAGAAGCGGGGATACTAACATAAGACGAGAAGACCCTATGGAGCTTTAGACACTAGACAGCCCACGTCAAACTTCCCCCTCAAAGAGGAAAAAACATTGTGACTCCTGTCTCTCCTGTCTTCGGTTGGGGCGACCGCGGAGGATAAAAAAGCCTCCATGTGGACCGAGGTTACTAACCTCACAACTAAGAGCTGCAGCTCCAAGCAACAGAAATTCTGACCAAAAGGATCCGGCACAATGCCG</t>
-  </si>
-  <si>
-    <t>GAGGCCCAAGTTGACAGACTCCGGCGTAAAGAGTGGTTAAGTTAAAATTTATACTAAAGCCGAACATCCTCAAAGCTGTTATACGCACCCGAAGACAAGAAGTTCAACCACGAAGGTGGCTTTATTTAGTCTGAACCCACGAAAGCTACGGCACAAACTGGGATTAGATACCCCACTATGCTGTCTCTTAACACATCTCCGAGCCCACGAGACGTAACTTGGTATCTCGTATGCCGTCTTCTG</t>
-  </si>
-  <si>
-    <t>ATCACGAGGGCTTAGCTGTCTCCCATCTCCAGTCAATGAAATTGACCTCCCCGTGCAGAGGCGGGGATGATTACATAAGACGAGAAGACCCTATGGAGCTTTAATTAATCAACCCAAAAAACACAAAACAGCACCACCAAGGGATAACAAAATTTTACATGGGTTGACAATTTCGGTTGGGGTGACCTCGGAGTACAAAAAACCCTCCGAGTGATTAAAACCTAGGCCTACTGGCCAAAGTGTAATATCACTTATTGATCCAAATTCTTG</t>
-  </si>
-  <si>
-    <t>ATTAACCCAAATTAATAGGCCCTCGGCGTAAAGCGTGTTAAGGATTAACTCACACTAAAGTTAAAATCTAACCAAGCCGTAAAAAGCTACCGTTAACATAAAATAAACTACGAAAGTGACTTTATCAACTCTGACCACACGATAGCTAAGACCCAAACTGGGATTAGATACCCCACTATGCTGTCTCTTTACACATCTCCGAGCCCACGAGACGTAACTTGGTATCTCGTATGCCGTCTTCTGC</t>
-  </si>
-  <si>
-    <t>ATCACGAGGGCTTAGCTGTCTCCTCTTCCAAGTCAATGAAATTGATCTGCCCGTGCAGAAGCGGACATAAGCACATAAGACGAGAAGACCCTATGGAGCTTTAATTAATCAACCCAAAAAACACAAAACAGCACCACCAAGGGATAACAAAATTTTACATGGGTTGACAATTTCGGTTGGGGTGACCTCGGAGTACAAAAAACCCTCCGAGTGATTAAAACCTAGGCCTACTGGCCAAAGTGTAATATCACTTATTGATCCAAATTCTTG</t>
-  </si>
-  <si>
-    <t>ATCACGAGGGCTTAGCTGTCTCCCATCTCCAGTCAATGAAATTGACCTCCCCGTGAAGAGGCGGGGATAATACAATAAGACGAGAAGACCCTATGGAGCTTTAATTAATCAACCCAAAAAACACAAAACAGCACCACCAAGGGATAACAAAATTTTACATGGGTTGACAATTTCGGTTGGGGTGACCTCGGAGTACAAAAAACCCTCCGAGTGATTAAAACCTAGGCCTACTGGCCAAAGTGTAATATCACTTATTGATCCAAATTCTTG</t>
-  </si>
-  <si>
-    <t>GAGGCCCAAGTTGACAAACAACGGCGTAAAGAGTGGTTAGGGGATTTACTAAACTAGAGCCGAACGCTTTCAAAGCTGTTATACGCACCCGAAAGTATGAAACCCAATTACGAAAGTAGCTCTACTTATCCTGAACCCACGAAAGCTAAGAAACAAACTGGGATTAGATACCCCACTATGCTGTCTCTTATACCATCTCCGAGCCCACGAGACGTAACTTGGTATCTCGTATGCCGTCTTCTG</t>
-  </si>
-  <si>
-    <t>ATAACGAGGGTTTAACTGTCTCTTACTTCCAATCAGTGAAATTGACCTTCCCGTGAAGAGGCGGGAATATAATAATAAGACGAGAAGACCCTATGGAGCTTTAATTAACTAACTCAACAGAACAAATCCAGTCAACCAACAGGGAATAAAAACTTCTATAATGAGTTAGCAATTTAGGTTGGGGTGACCTCGGAGAACAAAACAACCTCCGAGTGATATAAACTAAGACAAACCAGTCAAAGTGCCACATCATTAATTGATCCAAAAATTTTTG</t>
-  </si>
-  <si>
-    <t>AGAGGCCCAAGTTGATAGCCACCGGCGTAAAGCGTGGTTAAGTTAAAAGTCATGCTAAAGCCAAACATCTTCAAGACTGTTATACGTAACCGAAGACAGGAAGTTCAACCACGAAAGTGGCTTTATTGATCTGAACCCACGAAAGCTAGGAAACAAACTGGGATTAGATACCCCACTATGCTGTCTCTTATACCATCTCCGAGCCCACGAGACGTAACTTGGTATCTCGTATGCCGTCTTCTGC</t>
-  </si>
-  <si>
-    <t>GAGGCCCAAGTTGACAAACACCGGCGTAAAGCGTGGTTAAGTAAAAACTCACACTAAAGCCAAACATCTTCCAGGCTGTTATACGCAACCGAAGACAGGAAGTTCAACCACGAAAGTGGCTTTATCTAGTCTGAACCCACGAAAGCTAAGGAACAAACTGGGATTAGATACCCCACTATGCTGTCTCTTATACACTCTCCGAGCCCACGAGACGTAACTTGGTATCTCGTATGCCGTCTTCTG</t>
-  </si>
-  <si>
-    <t>ATCACAAGGGCTTAGCTGTCTCCTCTTCCAAGTCAGTGAAATTGATCTGCCCGTGCAGAAGCGGGCATAAGTACATAAGACGTGAAGACACTATGGAGCTTTAGACACCAGGCAGATCACGTCAAGCAACTTTGAGTTAACAAGTAAAAACGCAGTGACCCCTAGCCCATATGTCTTTGGTTGGGGCGACCGCGGGGGAAAACAAAGCCCCCATGTGGACTGGGGGCACTGCCCCCACAGCCGAGAGCTACAGCTCTAAGCACCAGAATTTCTGACCAGAAATGATCCGGCGAACGCCG</t>
-  </si>
-  <si>
-    <t>ATAACGAGGGCTTAACTGTCTCCTTCCCCTGGTCAATGAAATTGATCTCCCCGTGCAGAAGCGGGGATGAAACCATAAGACGAGAAGACCCTATGGAGCTTTAGACACTAGACAGCCCACGTTAAACTTCCCCTATAAAGAGGAAAAAACATTGTGATTCCTGTCTCTCCTGTCTTCGGTTGGGGCGACCGCGGAGGATAAAAAAGCCTCCATGTGGACCGAGGTTACTAACCTCACAACTTAGAGCTGCAGCTCCAAGCAACAGAAATTCTGACCAAAATGATCCGGCATAGCGCCG</t>
-  </si>
-  <si>
-    <t>GAGGCCCAAGCTGATAGACCCCGGCGTAAAGAGTGGTTAAGATAAGCTTAAAACTAAAGCCGAACACCCTCACAGCTGTTATACGCACCCGAGAGTAAGAAGCCCAACTACGAAAGTGGCTTTACAACCCCTGAACCCACGAAAGCTATGACACAAACTGGGATTAGATACCCCACTATGCTGTCTCTATACACATCTCCGAGCCCACGAGACGTAACTTGGTATCTCGTATGCCGTCTTCTG</t>
-  </si>
-  <si>
-    <t>ATCACGAGGGCTTAGCTGTCTCCCATCTCCAGTCAATGAAATTGACCTCCCCGTGCAGAGGCGGGGATGATTACATAAGACGAGAAGACCCTATGGAGCTTTAGACCTAAAGTAAGTCACGTTTAATATGCTATAATAACAGCGAAAACTTAGTGAATATTACTGAAGTGTCTTTGGTTGGGGCGACCGCGGGGTAAAACACAACCCCCATGTGGACCGGGGATATTATCCCTAATACTCAGAGCCTCTACTCCAAGTAACAGAAATTCTGACCAAAATGATCCGGCATAGCGCCG</t>
-  </si>
-  <si>
-    <t>ATCACGAGGGCTTAGCTGTCTCCTCTTCCAAGTCAGTGAAATTGACCTCCCCGTGAAGAGGCGGGGATAATACAATAAGACGAGAAGACCCTATGGAGCTTTAATTAATCAACCCAAAAAACACAAAACAGCACCACCAAGGGATAACAAAATTTTACATGGGTTGACAATTTCGGTTGGGGTGACCTCGGAGTACAAAAAACCCTCCGAGTGATTAAAACCTAGGCCTACTGGCCAAAGTGTAATATCACTTATTGATCCAAATTCTTG</t>
-  </si>
-  <si>
-    <t>TTACTGTCTCTTACTTCTAATCAGTGAAATTGACCTCCCCGTGAAGAGGCGGGGATAATACAATAAGACGAGAAGACCCTATGGAGCTTTAATTAATCAACCCAAAAAACACAAAACAGCACCACCAAGGGATAACAAAATTTTACATGGGTTGACAATTTCGGTTGGGGTGACCTCGGAGTACAAAAAACCCTCCGAGTGATTAAAACCTAGGCCTACTGGCCAAAGTGTAATATCACTTATTGATCCAAATTCTTG</t>
-  </si>
-  <si>
-    <t>ATCACGAGGGCTTAGCTGTCTCCTCTTCCAAGTCAGTGAAATTGATCTGCCCGTGCAGAAGCGGGCATAAGTACATAAGACGAGAAGACCCTATGGAGCTTTAATTAATCAACCCAAAAAACACAAAACAGCACCACCAAGGGATAACAAAATTTTACATGGGTTGACAATTTCGGTTGGGGTGACCTCGGAGTACAAAAAACCCTCCGAGTGATTAAAACCTAGGCCTACTGGCCAAAGTGTAATATCACTTATTGATCCAAATTCTTG</t>
-  </si>
-  <si>
-    <t>GTGCAAGCGTTACTCGGAATCACTGGGCGTAAAGAGTGCGTAGGCGGGAAGGTAAGTCAGATGTGAAATCCTGTAGCTTAACTACAGAACTGCATTTGAAACTACTTTTCTAGAGTGTGGGAGAGGTAGGTGGAATTCTTGGTGTAGGGGTAAAATCCGTAGAGATCAAGAGGAATACTCATTGCGAAGGCGACCTGCTGGAACATTACTGACGCTCATGCACGAAAGCGTGGGGAGCAA</t>
-  </si>
-  <si>
-    <t>Bacteria</t>
-  </si>
-  <si>
-    <t>Campylobacterota</t>
-  </si>
-  <si>
-    <t>Epsilonproteobacteria</t>
-  </si>
-  <si>
-    <t>Campylobacterales</t>
-  </si>
-  <si>
-    <t>Helicobacteraceae</t>
-  </si>
-  <si>
-    <t>Helicobacter</t>
-  </si>
-  <si>
-    <t>Helicobacter spp.</t>
-  </si>
-  <si>
-    <t>ATAACGAGGGCTTAGCTGTCTCCTTTTTCCAGTCAATGAAATTGATCTCCCCGTGCAGAAGCGGGGATTATTACATAAGACGAGAAGACCCTATGGAGCTTTAGACACTAAAGTGGATCATGTCAATGACCCTAAATAAAGGATTGAACAAGATGGAACCCACCCTGATGTCTTTGGTTGGGGCGACCGCGGGGAAATAAATAACCCCCATGTGGAATGGGAGCACCCCTCCTACAGCTGAGAGTTACAACTCTAATAAACAGAATTTCTGACCAAAAAGATCCGGCAATGCCG</t>
-  </si>
-  <si>
     <t>ATAACGAGGGCTTAGCTGTCTCCTCTTTCAAGTCAATGAAATTGATCTTTCCGTGCAGAAGCGGGAATAAAAACATAAGACGAGAAGACCCTATGGAGCTTTAGACACTAAGACAGCTTACGTTAAACACTCCCAAGATAAAGGAAATAAACTAAACAAGCTCTGCCCTAATGTCTTTGGTTGGGGCGACCGCGGGGAACTAAATAACCCCCACGTGGAGCGGGAGAACTCCTCCTACAGCTAAGAGCTACAGCTCTAATAAACAGAAATTCTGACCAGCAAGATCCGGCAGTGCCG</t>
   </si>
   <si>
@@ -661,38 +681,23 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>&gt;99% Eleginus gracilis AND Microgaddus proxomus</t>
-  </si>
-  <si>
-    <t>&gt;99% Coregonus spp. AND Stenodus leucichthys</t>
-  </si>
-  <si>
-    <t>100% Myoxocephalus stelleri</t>
-  </si>
-  <si>
-    <t>Gadus macrocephalus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leptoclinus maculatus &amp; Lumpenus fabricii  </t>
-  </si>
-  <si>
-    <t>Myoxocephalus quadricornis</t>
-  </si>
-  <si>
-    <t>Pungitius pungitius</t>
-  </si>
-  <si>
-    <t>&gt;99% Oncorhynchus tshawytscha AND Oncorhynchus kisutch</t>
-  </si>
-  <si>
-    <t>nothing &gt;98%</t>
+    <t>&gt;99% Eleginus gracilis AND Microgadus proximus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;99% Coregonus spp. AND Stenodus leucichthys </t>
+  </si>
+  <si>
+    <t>100% Leptoclinus maculatus AND Lumpenus fabricii</t>
+  </si>
+  <si>
+    <t>Nothing &gt; 98%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -708,56 +713,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -769,25 +731,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1090,27 +1043,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J105" sqref="J105"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" customWidth="1"/>
+    <col min="3" max="3" width="14.796875" customWidth="1"/>
+    <col min="4" max="4" width="15.86328125" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.06640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.3984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1141,11 +1094,8 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1177,7 +1127,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1209,7 +1159,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1241,7 +1191,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1273,7 +1223,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1305,7 +1255,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1337,7 +1287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1369,7 +1319,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1380,7 +1330,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1412,7 +1362,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -1444,7 +1394,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1476,7 +1426,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1508,7 +1458,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1528,7 +1478,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -1560,7 +1510,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1592,7 +1542,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -1624,7 +1574,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -1656,33 +1606,39 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -1707,19 +1663,13 @@
       <c r="H20" t="s">
         <v>17</v>
       </c>
-      <c r="K20" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>58</v>
       </c>
-      <c r="K21" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -1751,7 +1701,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -1783,859 +1733,835 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>80</v>
+      </c>
+      <c r="J32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" t="s">
+        <v>87</v>
+      </c>
+      <c r="J37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" t="s">
         <v>70</v>
       </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" t="s">
-        <v>78</v>
-      </c>
-      <c r="J32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" t="s">
-        <v>17</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" t="s">
-        <v>17</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
+        <v>93</v>
+      </c>
+      <c r="J40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41" t="s">
+        <v>97</v>
+      </c>
+      <c r="G41" t="s">
+        <v>98</v>
+      </c>
+      <c r="H41" t="s">
+        <v>99</v>
+      </c>
+      <c r="I41" t="s">
+        <v>98</v>
+      </c>
+      <c r="J41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" t="s">
         <v>87</v>
       </c>
-      <c r="J38" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" t="s">
-        <v>13</v>
-      </c>
-      <c r="K39" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" t="s">
-        <v>91</v>
-      </c>
-      <c r="J40" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>93</v>
-      </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" t="s">
-        <v>94</v>
-      </c>
-      <c r="F41" t="s">
-        <v>95</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="J44" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" t="s">
+        <v>110</v>
+      </c>
+      <c r="G50" t="s">
+        <v>70</v>
+      </c>
+      <c r="H50" t="s">
+        <v>111</v>
+      </c>
+      <c r="I50" t="s">
+        <v>70</v>
+      </c>
+      <c r="J50" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
         <v>96</v>
       </c>
-      <c r="H41" t="s">
+      <c r="F53" t="s">
         <v>97</v>
       </c>
-      <c r="I41" t="s">
+      <c r="G53" t="s">
+        <v>98</v>
+      </c>
+      <c r="H53" t="s">
+        <v>99</v>
+      </c>
+      <c r="I53" t="s">
+        <v>98</v>
+      </c>
+      <c r="J53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" t="s">
+        <v>116</v>
+      </c>
+      <c r="G54" t="s">
+        <v>117</v>
+      </c>
+      <c r="H54" t="s">
+        <v>118</v>
+      </c>
+      <c r="I54" t="s">
+        <v>117</v>
+      </c>
+      <c r="J54" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s">
         <v>96</v>
       </c>
-      <c r="J41" t="s">
+      <c r="F55" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="G55" t="s">
         <v>98</v>
       </c>
-      <c r="B42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" t="s">
-        <v>16</v>
-      </c>
-      <c r="H42" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42" t="s">
-        <v>16</v>
-      </c>
-      <c r="J42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="H55" t="s">
         <v>99</v>
       </c>
-      <c r="B43" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43" t="s">
-        <v>17</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>100</v>
-      </c>
-      <c r="B44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" t="s">
-        <v>85</v>
-      </c>
-      <c r="J44" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>102</v>
-      </c>
-      <c r="B45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45" t="s">
-        <v>17</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>103</v>
-      </c>
-      <c r="B46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" t="s">
-        <v>17</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>104</v>
-      </c>
-      <c r="B47" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" t="s">
-        <v>16</v>
-      </c>
-      <c r="H47" t="s">
-        <v>17</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>105</v>
-      </c>
-      <c r="B48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48" t="s">
-        <v>17</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>106</v>
-      </c>
-      <c r="B49" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" t="s">
-        <v>16</v>
-      </c>
-      <c r="H49" t="s">
-        <v>17</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>108</v>
-      </c>
-      <c r="B51" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" t="s">
-        <v>17</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>109</v>
-      </c>
-      <c r="B52" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" t="s">
-        <v>16</v>
-      </c>
-      <c r="H52" t="s">
-        <v>17</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>110</v>
-      </c>
-      <c r="B53" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" t="s">
-        <v>94</v>
-      </c>
-      <c r="F53" t="s">
-        <v>95</v>
-      </c>
-      <c r="G53" t="s">
-        <v>96</v>
-      </c>
-      <c r="H53" t="s">
-        <v>97</v>
-      </c>
-      <c r="I53" t="s">
-        <v>96</v>
-      </c>
-      <c r="J53" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K54" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>115</v>
-      </c>
-      <c r="B55" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" t="s">
-        <v>94</v>
-      </c>
-      <c r="F55" t="s">
-        <v>95</v>
-      </c>
-      <c r="G55" t="s">
-        <v>96</v>
-      </c>
-      <c r="H55" t="s">
-        <v>97</v>
-      </c>
       <c r="I55" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B56" t="s">
         <v>11</v>
@@ -2658,13 +2584,10 @@
       <c r="H56" t="s">
         <v>17</v>
       </c>
-      <c r="K56" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B57" t="s">
         <v>11</v>
@@ -2694,9 +2617,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
@@ -2708,53 +2631,56 @@
         <v>13</v>
       </c>
       <c r="E58" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F58" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G58" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H58" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I58" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="J58" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s">
         <v>19</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" t="s">
         <v>20</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="G59" t="s">
         <v>21</v>
       </c>
-      <c r="K59" s="5" t="s">
+      <c r="I59" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B60" t="s">
         <v>11</v>
@@ -2769,50 +2695,56 @@
         <v>48</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G60" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H60" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I60" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="J60" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s">
         <v>65</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" t="s">
         <v>66</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="G61" t="s">
         <v>67</v>
       </c>
-      <c r="H61" s="5" t="s">
+      <c r="H61" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I61" t="s">
+        <v>67</v>
+      </c>
+      <c r="J61" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B62" t="s">
         <v>11</v>
@@ -2824,15 +2756,15 @@
         <v>13</v>
       </c>
       <c r="I62" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J62" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B63" t="s">
         <v>11</v>
@@ -2855,27 +2787,24 @@
       <c r="H63" t="s">
         <v>17</v>
       </c>
-      <c r="K63" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B64" t="s">
         <v>11</v>
       </c>
       <c r="I64" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J64" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
@@ -2887,15 +2816,15 @@
         <v>13</v>
       </c>
       <c r="I65" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="J65" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
@@ -2910,24 +2839,24 @@
         <v>48</v>
       </c>
       <c r="F66" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="G66" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H66" t="s">
+        <v>142</v>
+      </c>
+      <c r="I66" t="s">
         <v>139</v>
       </c>
-      <c r="I66" t="s">
-        <v>135</v>
-      </c>
       <c r="J66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
@@ -2945,21 +2874,21 @@
         <v>15</v>
       </c>
       <c r="G67" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H67" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I67" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J67" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B68" t="s">
         <v>11</v>
@@ -2968,111 +2897,114 @@
         <v>12</v>
       </c>
       <c r="D68" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E68" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F68" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G68" t="s">
+        <v>150</v>
+      </c>
+      <c r="H68" t="s">
+        <v>151</v>
+      </c>
+      <c r="I68" t="s">
+        <v>150</v>
+      </c>
+      <c r="J68" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" t="s">
+        <v>153</v>
+      </c>
+      <c r="J69" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>155</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" t="s">
+        <v>123</v>
+      </c>
+      <c r="F70" t="s">
+        <v>110</v>
+      </c>
+      <c r="G70" t="s">
+        <v>153</v>
+      </c>
+      <c r="H70" t="s">
+        <v>154</v>
+      </c>
+      <c r="I70" t="s">
+        <v>153</v>
+      </c>
+      <c r="J70" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" t="s">
         <v>147</v>
       </c>
-      <c r="H68" t="s">
+      <c r="E71" t="s">
         <v>148</v>
       </c>
-      <c r="I68" t="s">
-        <v>147</v>
-      </c>
-      <c r="J68" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+      <c r="F71" t="s">
         <v>149</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K69" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>150</v>
-      </c>
-      <c r="B70" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" t="s">
-        <v>119</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
-      </c>
-      <c r="G70" t="s">
-        <v>151</v>
-      </c>
-      <c r="H70" t="s">
-        <v>152</v>
-      </c>
-      <c r="I70" t="s">
-        <v>151</v>
-      </c>
-      <c r="J70" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>153</v>
-      </c>
-      <c r="B71" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" t="s">
-        <v>144</v>
-      </c>
-      <c r="E71" t="s">
-        <v>145</v>
-      </c>
-      <c r="F71" t="s">
-        <v>146</v>
-      </c>
       <c r="G71" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H71" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I71" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="J71" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
@@ -3087,24 +3019,24 @@
         <v>48</v>
       </c>
       <c r="F72" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G72" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H72" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I72" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J72" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B73" t="s">
         <v>11</v>
@@ -3113,30 +3045,30 @@
         <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E73" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F73" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G73" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H73" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I73" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J73" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
@@ -3148,27 +3080,27 @@
         <v>13</v>
       </c>
       <c r="E74" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F74" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G74" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H74" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I74" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J74" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B75" t="s">
         <v>11</v>
@@ -3191,13 +3123,10 @@
       <c r="H75" t="s">
         <v>17</v>
       </c>
-      <c r="K75" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B76" t="s">
         <v>11</v>
@@ -3227,9 +3156,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B77" t="s">
         <v>11</v>
@@ -3244,79 +3173,85 @@
         <v>48</v>
       </c>
       <c r="F77" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="G77" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="H77" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I77" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J77" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E78" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>177</v>
+      </c>
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" t="s">
         <v>27</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="F78" t="s">
         <v>28</v>
       </c>
-      <c r="G78" s="5" t="s">
+      <c r="G78" t="s">
         <v>29</v>
       </c>
-      <c r="H78" s="5" t="s">
+      <c r="H78" t="s">
         <v>30</v>
       </c>
-      <c r="K78" s="5" t="s">
+      <c r="I78" t="s">
+        <v>29</v>
+      </c>
+      <c r="J78" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" s="6" t="s">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>178</v>
+      </c>
+      <c r="B79" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" t="s">
         <v>19</v>
       </c>
-      <c r="F79" s="6" t="s">
+      <c r="F79" t="s">
         <v>20</v>
       </c>
-      <c r="G79" s="6" t="s">
+      <c r="G79" t="s">
         <v>21</v>
       </c>
-      <c r="K79" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I79" t="s">
+        <v>21</v>
+      </c>
+      <c r="J79" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B80" t="s">
         <v>11</v>
@@ -3334,21 +3269,21 @@
         <v>20</v>
       </c>
       <c r="G80" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H80" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I80" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="J80" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B81" t="s">
         <v>11</v>
@@ -3360,27 +3295,27 @@
         <v>13</v>
       </c>
       <c r="E81" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F81" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G81" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H81" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I81" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="J81" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B82" t="s">
         <v>11</v>
@@ -3389,30 +3324,30 @@
         <v>12</v>
       </c>
       <c r="D82" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E82" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F82" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G82" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H82" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I82" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J82" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B83" t="s">
         <v>11</v>
@@ -3442,9 +3377,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B84" t="s">
         <v>11</v>
@@ -3456,15 +3391,15 @@
         <v>13</v>
       </c>
       <c r="I84" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="J84" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B85" t="s">
         <v>11</v>
@@ -3473,30 +3408,30 @@
         <v>12</v>
       </c>
       <c r="D85" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E85" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F85" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G85" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H85" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I85" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J85" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B86" t="s">
         <v>11</v>
@@ -3526,9 +3461,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B87" t="s">
         <v>11</v>
@@ -3543,15 +3478,12 @@
         <v>48</v>
       </c>
       <c r="F87" t="s">
-        <v>120</v>
-      </c>
-      <c r="K87" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B88" t="s">
         <v>11</v>
@@ -3560,114 +3492,114 @@
         <v>12</v>
       </c>
       <c r="D88" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E88" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F88" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G88" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H88" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>191</v>
+      </c>
+      <c r="B89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" t="s">
+        <v>147</v>
+      </c>
+      <c r="E89" t="s">
+        <v>148</v>
+      </c>
+      <c r="F89" t="s">
+        <v>149</v>
+      </c>
+      <c r="G89" t="s">
+        <v>157</v>
+      </c>
+      <c r="H89" t="s">
+        <v>158</v>
+      </c>
+      <c r="I89" t="s">
+        <v>157</v>
+      </c>
+      <c r="J89" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>192</v>
+      </c>
+      <c r="B90" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" t="s">
+        <v>147</v>
+      </c>
+      <c r="E90" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>187</v>
-      </c>
-      <c r="B89" t="s">
-        <v>11</v>
-      </c>
-      <c r="C89" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" t="s">
-        <v>144</v>
-      </c>
-      <c r="E89" t="s">
-        <v>145</v>
-      </c>
-      <c r="F89" t="s">
-        <v>146</v>
-      </c>
-      <c r="G89" t="s">
-        <v>154</v>
-      </c>
-      <c r="H89" t="s">
-        <v>155</v>
-      </c>
-      <c r="I89" t="s">
-        <v>154</v>
-      </c>
-      <c r="J89" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>188</v>
-      </c>
-      <c r="B90" t="s">
-        <v>11</v>
-      </c>
-      <c r="C90" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" t="s">
-        <v>144</v>
-      </c>
-      <c r="E90" t="s">
-        <v>161</v>
-      </c>
       <c r="F90" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G90" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H90" t="s">
+        <v>167</v>
+      </c>
+      <c r="I90" t="s">
+        <v>166</v>
+      </c>
+      <c r="J90" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>193</v>
+      </c>
+      <c r="B91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" t="s">
+        <v>147</v>
+      </c>
+      <c r="E91" t="s">
         <v>164</v>
       </c>
-      <c r="I90" t="s">
-        <v>163</v>
-      </c>
-      <c r="J90" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>189</v>
-      </c>
-      <c r="B91" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" t="s">
-        <v>144</v>
-      </c>
-      <c r="E91" t="s">
-        <v>161</v>
-      </c>
       <c r="F91" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G91" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H91" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B92" t="s">
         <v>11</v>
@@ -3679,27 +3611,27 @@
         <v>13</v>
       </c>
       <c r="E92" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F92" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G92" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H92" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I92" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J92" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B93" t="s">
         <v>11</v>
@@ -3708,30 +3640,30 @@
         <v>12</v>
       </c>
       <c r="D93" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E93" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F93" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G93" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H93" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I93" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J93" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B94" t="s">
         <v>11</v>
@@ -3746,15 +3678,12 @@
         <v>48</v>
       </c>
       <c r="F94" t="s">
-        <v>157</v>
-      </c>
-      <c r="K94" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B95" t="s">
         <v>11</v>
@@ -3769,55 +3698,61 @@
         <v>48</v>
       </c>
       <c r="F95" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="G95" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="H95" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I95" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J95" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E97" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>199</v>
+      </c>
+      <c r="B97" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" t="s">
         <v>27</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="F97" t="s">
         <v>28</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="G97" t="s">
         <v>29</v>
       </c>
-      <c r="H97" s="2" t="s">
+      <c r="H97" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I97" t="s">
+        <v>29</v>
+      </c>
+      <c r="J97" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B98" t="s">
         <v>11</v>
@@ -3847,9 +3782,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B99" t="s">
         <v>11</v>
@@ -3879,9 +3814,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B100" t="s">
         <v>11</v>
@@ -3890,149 +3825,152 @@
         <v>12</v>
       </c>
       <c r="D100" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E100" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F100" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G100" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H100" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" t="s">
+        <v>147</v>
+      </c>
+      <c r="E101" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>199</v>
-      </c>
-      <c r="B101" t="s">
-        <v>11</v>
-      </c>
-      <c r="C101" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" t="s">
-        <v>144</v>
-      </c>
-      <c r="E101" t="s">
-        <v>161</v>
-      </c>
       <c r="F101" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G101" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H101" t="s">
+        <v>167</v>
+      </c>
+      <c r="I101" t="s">
+        <v>166</v>
+      </c>
+      <c r="J101" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>204</v>
+      </c>
+      <c r="B102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" t="s">
+        <v>147</v>
+      </c>
+      <c r="E102" t="s">
         <v>164</v>
       </c>
-      <c r="I101" t="s">
-        <v>163</v>
-      </c>
-      <c r="J101" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>200</v>
-      </c>
-      <c r="B102" t="s">
-        <v>11</v>
-      </c>
-      <c r="C102" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" t="s">
-        <v>144</v>
-      </c>
-      <c r="E102" t="s">
-        <v>161</v>
-      </c>
       <c r="F102" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G102" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H102" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I102" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J102" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B103" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C103" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D103" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G103" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H103" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I103" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J103" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E104" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>213</v>
+      </c>
+      <c r="B104" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" t="s">
         <v>48</v>
       </c>
-      <c r="F104" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J104" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F104" t="s">
+        <v>116</v>
+      </c>
+      <c r="G104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H104" t="s">
+        <v>215</v>
+      </c>
+      <c r="I104" t="s">
+        <v>214</v>
+      </c>
+      <c r="J104" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B105" t="s">
         <v>11</v>
@@ -4062,9 +4000,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B106" t="s">
         <v>11</v>
@@ -4092,6 +4030,3322 @@
       </c>
       <c r="J106" t="s">
         <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF5EE55-48E8-422E-B365-122DC9DDF43F}">
+  <dimension ref="A1:J92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" customWidth="1"/>
+    <col min="3" max="3" width="14.796875" customWidth="1"/>
+    <col min="4" max="4" width="15.86328125" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.06640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>80</v>
+      </c>
+      <c r="J32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" t="s">
+        <v>87</v>
+      </c>
+      <c r="J37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" t="s">
+        <v>70</v>
+      </c>
+      <c r="J38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
+        <v>93</v>
+      </c>
+      <c r="J40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41" t="s">
+        <v>97</v>
+      </c>
+      <c r="G41" t="s">
+        <v>98</v>
+      </c>
+      <c r="H41" t="s">
+        <v>99</v>
+      </c>
+      <c r="I41" t="s">
+        <v>98</v>
+      </c>
+      <c r="J41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" t="s">
+        <v>87</v>
+      </c>
+      <c r="J44" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" t="s">
+        <v>110</v>
+      </c>
+      <c r="G50" t="s">
+        <v>70</v>
+      </c>
+      <c r="H50" t="s">
+        <v>111</v>
+      </c>
+      <c r="I50" t="s">
+        <v>70</v>
+      </c>
+      <c r="J50" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53" t="s">
+        <v>97</v>
+      </c>
+      <c r="G53" t="s">
+        <v>98</v>
+      </c>
+      <c r="H53" t="s">
+        <v>99</v>
+      </c>
+      <c r="I53" t="s">
+        <v>98</v>
+      </c>
+      <c r="J53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" t="s">
+        <v>116</v>
+      </c>
+      <c r="G54" t="s">
+        <v>117</v>
+      </c>
+      <c r="H54" t="s">
+        <v>118</v>
+      </c>
+      <c r="I54" t="s">
+        <v>117</v>
+      </c>
+      <c r="J54" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s">
+        <v>96</v>
+      </c>
+      <c r="F55" t="s">
+        <v>97</v>
+      </c>
+      <c r="G55" t="s">
+        <v>98</v>
+      </c>
+      <c r="H55" t="s">
+        <v>99</v>
+      </c>
+      <c r="I55" t="s">
+        <v>98</v>
+      </c>
+      <c r="J55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" t="s">
+        <v>21</v>
+      </c>
+      <c r="J57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s">
+        <v>123</v>
+      </c>
+      <c r="F58" t="s">
+        <v>124</v>
+      </c>
+      <c r="G58" t="s">
+        <v>125</v>
+      </c>
+      <c r="H58" t="s">
+        <v>126</v>
+      </c>
+      <c r="I58" t="s">
+        <v>125</v>
+      </c>
+      <c r="J58" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" t="s">
+        <v>48</v>
+      </c>
+      <c r="F60" t="s">
+        <v>124</v>
+      </c>
+      <c r="G60" t="s">
+        <v>129</v>
+      </c>
+      <c r="H60" t="s">
+        <v>130</v>
+      </c>
+      <c r="I60" t="s">
+        <v>129</v>
+      </c>
+      <c r="J60" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s">
+        <v>65</v>
+      </c>
+      <c r="F61" t="s">
+        <v>66</v>
+      </c>
+      <c r="G61" t="s">
+        <v>67</v>
+      </c>
+      <c r="H61" t="s">
+        <v>68</v>
+      </c>
+      <c r="I61" t="s">
+        <v>67</v>
+      </c>
+      <c r="J61" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" t="s">
+        <v>133</v>
+      </c>
+      <c r="J62" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>136</v>
+      </c>
+      <c r="B64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" t="s">
+        <v>70</v>
+      </c>
+      <c r="J64" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>138</v>
+      </c>
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="I65" t="s">
+        <v>139</v>
+      </c>
+      <c r="J65" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s">
+        <v>48</v>
+      </c>
+      <c r="F66" t="s">
+        <v>110</v>
+      </c>
+      <c r="G66" t="s">
+        <v>139</v>
+      </c>
+      <c r="H66" t="s">
+        <v>142</v>
+      </c>
+      <c r="I66" t="s">
+        <v>139</v>
+      </c>
+      <c r="J66" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" t="s">
+        <v>144</v>
+      </c>
+      <c r="H67" t="s">
+        <v>145</v>
+      </c>
+      <c r="I67" t="s">
+        <v>144</v>
+      </c>
+      <c r="J67" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>152</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" t="s">
+        <v>153</v>
+      </c>
+      <c r="J68" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>155</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" t="s">
+        <v>123</v>
+      </c>
+      <c r="F69" t="s">
+        <v>110</v>
+      </c>
+      <c r="G69" t="s">
+        <v>153</v>
+      </c>
+      <c r="H69" t="s">
+        <v>154</v>
+      </c>
+      <c r="I69" t="s">
+        <v>153</v>
+      </c>
+      <c r="J69" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" t="s">
+        <v>48</v>
+      </c>
+      <c r="F70" t="s">
+        <v>160</v>
+      </c>
+      <c r="G70" t="s">
+        <v>161</v>
+      </c>
+      <c r="H70" t="s">
+        <v>162</v>
+      </c>
+      <c r="I70" t="s">
+        <v>161</v>
+      </c>
+      <c r="J70" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>168</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" t="s">
+        <v>169</v>
+      </c>
+      <c r="F71" t="s">
+        <v>170</v>
+      </c>
+      <c r="G71" t="s">
+        <v>171</v>
+      </c>
+      <c r="H71" t="s">
+        <v>172</v>
+      </c>
+      <c r="I71" t="s">
+        <v>171</v>
+      </c>
+      <c r="J71" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>173</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>174</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" t="s">
+        <v>21</v>
+      </c>
+      <c r="H73" t="s">
+        <v>25</v>
+      </c>
+      <c r="I73" t="s">
+        <v>21</v>
+      </c>
+      <c r="J73" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>175</v>
+      </c>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" t="s">
+        <v>48</v>
+      </c>
+      <c r="F74" t="s">
+        <v>110</v>
+      </c>
+      <c r="G74" t="s">
+        <v>70</v>
+      </c>
+      <c r="H74" t="s">
+        <v>176</v>
+      </c>
+      <c r="I74" t="s">
+        <v>70</v>
+      </c>
+      <c r="J74" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>177</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" t="s">
+        <v>27</v>
+      </c>
+      <c r="F75" t="s">
+        <v>28</v>
+      </c>
+      <c r="G75" t="s">
+        <v>29</v>
+      </c>
+      <c r="H75" t="s">
+        <v>30</v>
+      </c>
+      <c r="I75" t="s">
+        <v>29</v>
+      </c>
+      <c r="J75" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>178</v>
+      </c>
+      <c r="B76" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" t="s">
+        <v>20</v>
+      </c>
+      <c r="G76" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76" t="s">
+        <v>21</v>
+      </c>
+      <c r="J76" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>180</v>
+      </c>
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" t="s">
+        <v>181</v>
+      </c>
+      <c r="H77" t="s">
+        <v>182</v>
+      </c>
+      <c r="I77" t="s">
+        <v>181</v>
+      </c>
+      <c r="J77" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>183</v>
+      </c>
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" t="s">
+        <v>123</v>
+      </c>
+      <c r="F78" t="s">
+        <v>124</v>
+      </c>
+      <c r="G78" t="s">
+        <v>125</v>
+      </c>
+      <c r="H78" t="s">
+        <v>126</v>
+      </c>
+      <c r="I78" t="s">
+        <v>125</v>
+      </c>
+      <c r="J78" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>185</v>
+      </c>
+      <c r="B79" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" t="s">
+        <v>27</v>
+      </c>
+      <c r="F79" t="s">
+        <v>28</v>
+      </c>
+      <c r="G79" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" t="s">
+        <v>30</v>
+      </c>
+      <c r="I79" t="s">
+        <v>29</v>
+      </c>
+      <c r="J79" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>186</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" t="s">
+        <v>139</v>
+      </c>
+      <c r="J80" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>188</v>
+      </c>
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" t="s">
+        <v>27</v>
+      </c>
+      <c r="F81" t="s">
+        <v>28</v>
+      </c>
+      <c r="G81" t="s">
+        <v>55</v>
+      </c>
+      <c r="H81" t="s">
+        <v>56</v>
+      </c>
+      <c r="I81" t="s">
+        <v>55</v>
+      </c>
+      <c r="J81" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>189</v>
+      </c>
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" t="s">
+        <v>48</v>
+      </c>
+      <c r="F82" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>194</v>
+      </c>
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" t="s">
+        <v>96</v>
+      </c>
+      <c r="F83" t="s">
+        <v>97</v>
+      </c>
+      <c r="G83" t="s">
+        <v>98</v>
+      </c>
+      <c r="H83" t="s">
+        <v>99</v>
+      </c>
+      <c r="I83" t="s">
+        <v>98</v>
+      </c>
+      <c r="J83" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>196</v>
+      </c>
+      <c r="B84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" t="s">
+        <v>48</v>
+      </c>
+      <c r="F84" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>197</v>
+      </c>
+      <c r="B85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" t="s">
+        <v>48</v>
+      </c>
+      <c r="F85" t="s">
+        <v>110</v>
+      </c>
+      <c r="G85" t="s">
+        <v>70</v>
+      </c>
+      <c r="H85" t="s">
+        <v>176</v>
+      </c>
+      <c r="I85" t="s">
+        <v>70</v>
+      </c>
+      <c r="J85" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>199</v>
+      </c>
+      <c r="B87" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" t="s">
+        <v>27</v>
+      </c>
+      <c r="F87" t="s">
+        <v>28</v>
+      </c>
+      <c r="G87" t="s">
+        <v>29</v>
+      </c>
+      <c r="H87" t="s">
+        <v>30</v>
+      </c>
+      <c r="I87" t="s">
+        <v>29</v>
+      </c>
+      <c r="J87" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>200</v>
+      </c>
+      <c r="B88" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" t="s">
+        <v>65</v>
+      </c>
+      <c r="F88" t="s">
+        <v>66</v>
+      </c>
+      <c r="G88" t="s">
+        <v>67</v>
+      </c>
+      <c r="H88" t="s">
+        <v>68</v>
+      </c>
+      <c r="I88" t="s">
+        <v>67</v>
+      </c>
+      <c r="J88" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>201</v>
+      </c>
+      <c r="B89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" t="s">
+        <v>15</v>
+      </c>
+      <c r="G89" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" t="s">
+        <v>17</v>
+      </c>
+      <c r="I89" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>213</v>
+      </c>
+      <c r="B90" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" t="s">
+        <v>48</v>
+      </c>
+      <c r="F90" t="s">
+        <v>116</v>
+      </c>
+      <c r="G90" t="s">
+        <v>214</v>
+      </c>
+      <c r="H90" t="s">
+        <v>215</v>
+      </c>
+      <c r="I90" t="s">
+        <v>214</v>
+      </c>
+      <c r="J90" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>216</v>
+      </c>
+      <c r="B91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" t="s">
+        <v>48</v>
+      </c>
+      <c r="F91" t="s">
+        <v>49</v>
+      </c>
+      <c r="G91" t="s">
+        <v>50</v>
+      </c>
+      <c r="H91" t="s">
+        <v>51</v>
+      </c>
+      <c r="I91" t="s">
+        <v>50</v>
+      </c>
+      <c r="J91" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>217</v>
+      </c>
+      <c r="B92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" t="s">
+        <v>60</v>
+      </c>
+      <c r="F92" t="s">
+        <v>61</v>
+      </c>
+      <c r="G92" t="s">
+        <v>62</v>
+      </c>
+      <c r="H92" t="s">
+        <v>63</v>
+      </c>
+      <c r="I92" t="s">
+        <v>62</v>
+      </c>
+      <c r="J92" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D1DDFD-FF0A-4E2A-9CCB-7BEDB7E99244}">
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" customWidth="1"/>
+    <col min="3" max="3" width="14.796875" customWidth="1"/>
+    <col min="4" max="4" width="15.86328125" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.06640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.796875" customWidth="1"/>
+    <col min="10" max="10" width="9.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>173</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
+        <v>124</v>
+      </c>
+      <c r="K25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
+        <v>160</v>
+      </c>
+      <c r="K26" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>198</v>
+      </c>
+      <c r="K27" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
